--- a/speakerpositions/HUFO/Hufo_allSpeakerpositions.xlsx
+++ b/speakerpositions/HUFO/Hufo_allSpeakerpositions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/psch/Documents/GitHub/hufo_system/speakerpositions/HUFO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1EB5EF74-CCBC-804F-9E61-05AD8685C70B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A027F2-297E-A540-B4D3-E273518243A7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28340" xr2:uid="{5ABADEA7-2DF9-5341-AACA-1736DC7CEC8A}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28340" activeTab="9" xr2:uid="{5ABADEA7-2DF9-5341-AACA-1736DC7CEC8A}"/>
   </bookViews>
   <sheets>
     <sheet name="Hufo_SpeakerPositions" sheetId="1" r:id="rId1"/>
@@ -576,12 +576,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -606,6 +600,12 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -923,8 +923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FB4A2B6-EB8A-6A43-B754-121A2528DB3A}">
   <dimension ref="A2:AC89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
-      <selection activeCell="R39" sqref="R39"/>
+    <sheetView zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
+      <selection activeCell="S24" activeCellId="1" sqref="S7:S22 S24:S39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1041,16 +1041,16 @@
       <c r="W6" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="Y6" s="69" t="s">
+      <c r="Y6" s="67" t="s">
         <v>63</v>
       </c>
-      <c r="Z6" s="70" t="s">
+      <c r="Z6" s="68" t="s">
         <v>64</v>
       </c>
-      <c r="AB6" s="69" t="s">
+      <c r="AB6" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="AC6" s="70" t="s">
+      <c r="AC6" s="68" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1087,11 +1087,11 @@
         <f>J7*($E$2/SQRT(POWER(I7,2)+POWER(J7,2)))</f>
         <v>4.4825815717127657</v>
       </c>
-      <c r="M7" s="79">
+      <c r="M7" s="77">
         <f>(E8-E7) / SQRT(POWER(E7-E8,2)+POWER(F7-F8,2))</f>
         <v>0.80752685492933984</v>
       </c>
-      <c r="N7" s="79">
+      <c r="N7" s="77">
         <f>(F8-F7) / SQRT(POWER(E7-E8,2)+POWER(F7-F8,2))</f>
         <v>0.58983080503473939</v>
       </c>
@@ -1126,19 +1126,19 @@
       <c r="W7" s="46">
         <v>0</v>
       </c>
-      <c r="Y7" s="71">
-        <f>(E7+ K7) / 1000</f>
+      <c r="Y7" s="69">
+        <f t="shared" ref="Y7:Y40" si="3">(E7+ K7) / 1000</f>
         <v>-6.0514411507987482</v>
       </c>
-      <c r="Z7" s="72">
-        <f>(F7+ L7) / 1000</f>
+      <c r="Z7" s="70">
+        <f t="shared" ref="Z7:Z40" si="4">(F7+ L7) / 1000</f>
         <v>2.1116615815717128</v>
       </c>
-      <c r="AB7" s="75">
+      <c r="AB7" s="73">
         <f>N7</f>
         <v>0.58983080503473939</v>
       </c>
-      <c r="AC7" s="76">
+      <c r="AC7" s="74">
         <f>-M7</f>
         <v>-0.80752685492933984</v>
       </c>
@@ -1169,66 +1169,66 @@
         <v>697.04800000000068</v>
       </c>
       <c r="K8" s="13">
-        <f t="shared" ref="K8:K39" si="3">I8*($E$2/SQRT(POWER(I8,2)+POWER(J8,2)))</f>
+        <f t="shared" ref="K8:K39" si="5">I8*($E$2/SQRT(POWER(I8,2)+POWER(J8,2)))</f>
         <v>-2.885981849354208</v>
       </c>
       <c r="L8" s="13">
-        <f t="shared" ref="L8:L39" si="4">J8*($E$2/SQRT(POWER(I8,2)+POWER(J8,2)))</f>
+        <f t="shared" ref="L8:L39" si="6">J8*($E$2/SQRT(POWER(I8,2)+POWER(J8,2)))</f>
         <v>4.7418044840754527</v>
       </c>
-      <c r="M8" s="79">
-        <f t="shared" ref="M8:M40" si="5">(E9-E8) / SQRT(POWER(E8-E9,2)+POWER(F8-F9,2))</f>
+      <c r="M8" s="77">
+        <f t="shared" ref="M8:M40" si="7">(E9-E8) / SQRT(POWER(E8-E9,2)+POWER(F8-F9,2))</f>
         <v>0.85422527185650377</v>
       </c>
-      <c r="N8" s="79">
-        <f t="shared" ref="N8:N40" si="6">(F9-F8) / SQRT(POWER(E8-E9,2)+POWER(F8-F9,2))</f>
+      <c r="N8" s="77">
+        <f t="shared" ref="N8:N40" si="8">(F9-F8) / SQRT(POWER(E8-E9,2)+POWER(F8-F9,2))</f>
         <v>0.51990305338753517</v>
       </c>
       <c r="O8" s="20">
-        <f t="shared" ref="O8:O40" si="7">(((E8+E9)/2) -K8 - ($E$3*M8)) / 1000</f>
+        <f t="shared" ref="O8:O40" si="9">(((E8+E9)/2) -K8 - ($E$3*M8)) / 1000</f>
         <v>-5.3367938633004224</v>
       </c>
       <c r="P8" s="21">
-        <f t="shared" ref="P8:P40" si="8">(((E8+E9)/2) -K8 + ($E$3*M8)) / 1000</f>
+        <f t="shared" ref="P8:P40" si="10">(((E8+E9)/2) -K8 + ($E$3*M8)) / 1000</f>
         <v>-4.7388361730008697</v>
       </c>
       <c r="Q8" s="21">
-        <f t="shared" ref="Q8:Q40" si="9">(((F8+F9)/2) -L8 - ($E$3*N8)) / 1000</f>
+        <f t="shared" ref="Q8:Q40" si="11">(((F8+F9)/2) -L8 - ($E$3*N8)) / 1000</f>
         <v>2.6138936268302873</v>
       </c>
       <c r="R8" s="21">
-        <f t="shared" ref="R8:R40" si="10">(((F8+F9)/2) -L8 + ($E$3*N8)) / 1000</f>
+        <f t="shared" ref="R8:R40" si="12">(((F8+F9)/2) -L8 + ($E$3*N8)) / 1000</f>
         <v>2.9778257642015618</v>
       </c>
       <c r="S8" s="22">
-        <f t="shared" ref="S8:S39" si="11">(G8)/1000</f>
+        <f t="shared" ref="S8:S39" si="13">(G8)/1000</f>
         <v>2.0137</v>
       </c>
       <c r="T8" s="15">
-        <f t="shared" ref="T8:T39" si="12">SQRT(POWER(O8-P8,2)+POWER(Q8-R8,2))</f>
+        <f t="shared" ref="T8:T39" si="14">SQRT(POWER(O8-P8,2)+POWER(Q8-R8,2))</f>
         <v>0.7</v>
       </c>
       <c r="V8" s="20">
-        <f t="shared" ref="V8:V39" si="13">S8-$E$4</f>
+        <f t="shared" ref="V8:V39" si="15">S8-$E$4</f>
         <v>0.26370000000000005</v>
       </c>
       <c r="W8" s="46">
         <v>0</v>
       </c>
-      <c r="Y8" s="71">
-        <f>(E8+ K8) / 1000</f>
+      <c r="Y8" s="69">
+        <f t="shared" si="3"/>
         <v>-5.3921109818493544</v>
       </c>
-      <c r="Z8" s="72">
-        <f>(F8+ L8) / 1000</f>
+      <c r="Z8" s="70">
+        <f t="shared" si="4"/>
         <v>2.5932228044840757</v>
       </c>
-      <c r="AB8" s="75">
-        <f t="shared" ref="AB8:AB40" si="14">N8</f>
+      <c r="AB8" s="73">
+        <f t="shared" ref="AB8:AB40" si="16">N8</f>
         <v>0.51990305338753517</v>
       </c>
-      <c r="AC8" s="76">
-        <f t="shared" ref="AC8:AC40" si="15">-M8</f>
+      <c r="AC8" s="74">
+        <f t="shared" ref="AC8:AC40" si="17">-M8</f>
         <v>-0.85422527185650377</v>
       </c>
     </row>
@@ -1258,66 +1258,66 @@
         <v>730.22599999999966</v>
       </c>
       <c r="K9" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-2.4773929467920039</v>
       </c>
       <c r="L9" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4.9675069388160127</v>
       </c>
-      <c r="M9" s="79">
-        <f t="shared" si="5"/>
+      <c r="M9" s="77">
+        <f t="shared" si="7"/>
         <v>0.89488505473176228</v>
       </c>
-      <c r="N9" s="79">
-        <f t="shared" si="6"/>
+      <c r="N9" s="77">
+        <f t="shared" si="8"/>
         <v>0.44629669371140412</v>
       </c>
       <c r="O9" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-4.6377963762093248</v>
       </c>
       <c r="P9" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-4.0113768378970915</v>
       </c>
       <c r="Q9" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3.033639650262193</v>
       </c>
       <c r="R9" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3.3460473358601757</v>
       </c>
       <c r="S9" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2.0137</v>
       </c>
       <c r="T9" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.69999999999999962</v>
       </c>
       <c r="V9" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.26370000000000005</v>
       </c>
       <c r="W9" s="46">
         <v>0</v>
       </c>
-      <c r="Y9" s="71">
-        <f>(E9+ K9) / 1000</f>
+      <c r="Y9" s="69">
+        <f t="shared" si="3"/>
         <v>-4.6946543929467914</v>
       </c>
-      <c r="Z9" s="72">
-        <f>(F9+ L9) / 1000</f>
+      <c r="Z9" s="70">
+        <f t="shared" si="4"/>
         <v>3.0176895069388161</v>
       </c>
-      <c r="AB9" s="75">
-        <f t="shared" si="14"/>
+      <c r="AB9" s="73">
+        <f t="shared" si="16"/>
         <v>0.44629669371140412</v>
       </c>
-      <c r="AC9" s="76">
-        <f t="shared" si="15"/>
+      <c r="AC9" s="74">
+        <f t="shared" si="17"/>
         <v>-0.89488505473176228</v>
       </c>
     </row>
@@ -1347,66 +1347,66 @@
         <v>758.24000000000024</v>
       </c>
       <c r="K10" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-2.051299389004317</v>
       </c>
       <c r="L10" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5.1580783065663631</v>
       </c>
-      <c r="M10" s="79">
-        <f t="shared" si="5"/>
+      <c r="M10" s="77">
+        <f t="shared" si="7"/>
         <v>0.92921605234486804</v>
       </c>
-      <c r="N10" s="79">
-        <f t="shared" si="6"/>
+      <c r="N10" s="77">
+        <f t="shared" si="8"/>
         <v>0.36953691028721253</v>
       </c>
       <c r="O10" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-3.9060053189316997</v>
       </c>
       <c r="P10" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-3.255554082290292</v>
       </c>
       <c r="Q10" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3.3931750030929093</v>
       </c>
       <c r="R10" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3.6518508402939585</v>
       </c>
       <c r="S10" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2.0137</v>
       </c>
       <c r="T10" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.70000000000000018</v>
       </c>
       <c r="V10" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.26370000000000005</v>
       </c>
       <c r="W10" s="46">
         <v>0</v>
       </c>
-      <c r="Y10" s="71">
-        <f>(E10+ K10) / 1000</f>
+      <c r="Y10" s="69">
+        <f t="shared" si="3"/>
         <v>-3.9640022993890045</v>
       </c>
-      <c r="Z10" s="72">
-        <f>(F10+ L10) / 1000</f>
+      <c r="Z10" s="70">
+        <f t="shared" si="4"/>
         <v>3.3820580783065668</v>
       </c>
-      <c r="AB10" s="75">
-        <f t="shared" si="14"/>
+      <c r="AB10" s="73">
+        <f t="shared" si="16"/>
         <v>0.36953691028721253</v>
       </c>
-      <c r="AC10" s="76">
-        <f t="shared" si="15"/>
+      <c r="AC10" s="74">
+        <f t="shared" si="17"/>
         <v>-0.92921605234486804</v>
       </c>
     </row>
@@ -1436,66 +1436,66 @@
         <v>780.89399999999978</v>
       </c>
       <c r="K11" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-1.6106936787875619</v>
       </c>
       <c r="L11" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5.3121809902443831</v>
       </c>
-      <c r="M11" s="79">
-        <f t="shared" si="5"/>
+      <c r="M11" s="77">
+        <f t="shared" si="7"/>
         <v>0.95697729962968525</v>
       </c>
-      <c r="N11" s="79">
-        <f t="shared" si="6"/>
+      <c r="N11" s="77">
+        <f t="shared" si="8"/>
         <v>0.29016279567421399</v>
       </c>
       <c r="O11" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-3.1465953611916024</v>
       </c>
       <c r="P11" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-2.4767112514508232</v>
       </c>
       <c r="Q11" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3.6899593405237807</v>
       </c>
       <c r="R11" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3.8930732974957305</v>
       </c>
       <c r="S11" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2.0137</v>
       </c>
       <c r="T11" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.69999999999999962</v>
       </c>
       <c r="V11" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.26370000000000005</v>
       </c>
       <c r="W11" s="46">
         <v>0</v>
       </c>
-      <c r="Y11" s="71">
-        <f>(E11+ K11) / 1000</f>
+      <c r="Y11" s="69">
+        <f t="shared" si="3"/>
         <v>-3.2053216936787869</v>
       </c>
-      <c r="Z11" s="72">
-        <f>(F11+ L11) / 1000</f>
+      <c r="Z11" s="70">
+        <f t="shared" si="4"/>
         <v>3.6837541809902445</v>
       </c>
-      <c r="AB11" s="75">
-        <f t="shared" si="14"/>
+      <c r="AB11" s="73">
+        <f t="shared" si="16"/>
         <v>0.29016279567421399</v>
       </c>
-      <c r="AC11" s="76">
-        <f t="shared" si="15"/>
+      <c r="AC11" s="74">
+        <f t="shared" si="17"/>
         <v>-0.95697729962968525</v>
       </c>
     </row>
@@ -1525,66 +1525,66 @@
         <v>798.02500000000009</v>
       </c>
       <c r="K12" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-1.1586965344402667</v>
       </c>
       <c r="L12" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5.4287220725577878</v>
       </c>
-      <c r="M12" s="79">
-        <f t="shared" si="5"/>
+      <c r="M12" s="77">
+        <f t="shared" si="7"/>
         <v>0.97797191002662365</v>
       </c>
-      <c r="N12" s="79">
-        <f t="shared" si="6"/>
+      <c r="N12" s="77">
+        <f t="shared" si="8"/>
         <v>0.20873654016218099</v>
       </c>
       <c r="O12" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-2.3649359719748784</v>
       </c>
       <c r="P12" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-1.6803556349562414</v>
       </c>
       <c r="Q12" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3.9218929888706788</v>
       </c>
       <c r="R12" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>4.0680085669842052</v>
       </c>
       <c r="S12" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2.0137</v>
       </c>
       <c r="T12" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.7000000000000004</v>
       </c>
       <c r="V12" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.26370000000000005</v>
       </c>
       <c r="W12" s="46">
         <v>0</v>
       </c>
-      <c r="Y12" s="71">
-        <f>(E12+ K12) / 1000</f>
+      <c r="Y12" s="69">
+        <f t="shared" si="3"/>
         <v>-2.4239756965344403</v>
       </c>
-      <c r="Z12" s="72">
-        <f>(F12+ L12) / 1000</f>
+      <c r="Z12" s="70">
+        <f t="shared" si="4"/>
         <v>3.9206437220725578</v>
       </c>
-      <c r="AB12" s="75">
-        <f t="shared" si="14"/>
+      <c r="AB12" s="73">
+        <f t="shared" si="16"/>
         <v>0.20873654016218099</v>
       </c>
-      <c r="AC12" s="76">
-        <f t="shared" si="15"/>
+      <c r="AC12" s="74">
+        <f t="shared" si="17"/>
         <v>-0.97797191002662365</v>
       </c>
     </row>
@@ -1614,66 +1614,66 @@
         <v>809.5139999999999</v>
       </c>
       <c r="K13" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-0.69851417157525686</v>
       </c>
       <c r="L13" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5.5068756071032263</v>
       </c>
-      <c r="M13" s="79">
-        <f t="shared" si="5"/>
+      <c r="M13" s="77">
+        <f t="shared" si="7"/>
         <v>0.99205109117334289</v>
       </c>
-      <c r="N13" s="79">
-        <f t="shared" si="6"/>
+      <c r="N13" s="77">
+        <f t="shared" si="8"/>
         <v>0.12583573618721974</v>
       </c>
       <c r="O13" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-1.5665543677390947</v>
       </c>
       <c r="P13" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-0.87211860391775464</v>
       </c>
       <c r="Q13" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>4.08733561672737</v>
       </c>
       <c r="R13" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>4.1754206320584233</v>
       </c>
       <c r="S13" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2.0137</v>
       </c>
       <c r="T13" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.7</v>
       </c>
       <c r="V13" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.26370000000000005</v>
       </c>
       <c r="W13" s="46">
         <v>0</v>
       </c>
-      <c r="Y13" s="71">
-        <f>(E13+ K13) / 1000</f>
+      <c r="Y13" s="69">
+        <f t="shared" si="3"/>
         <v>-1.6254905141715752</v>
       </c>
-      <c r="Z13" s="72">
-        <f>(F13+ L13) / 1000</f>
+      <c r="Z13" s="70">
+        <f t="shared" si="4"/>
         <v>4.0910508756071033</v>
       </c>
-      <c r="AB13" s="75">
-        <f t="shared" si="14"/>
+      <c r="AB13" s="73">
+        <f t="shared" si="16"/>
         <v>0.12583573618721974</v>
       </c>
-      <c r="AC13" s="76">
-        <f t="shared" si="15"/>
+      <c r="AC13" s="74">
+        <f t="shared" si="17"/>
         <v>-0.99205109117334289</v>
       </c>
     </row>
@@ -1703,66 +1703,66 @@
         <v>815.27800000000002</v>
       </c>
       <c r="K14" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-0.23338702742143611</v>
       </c>
       <c r="L14" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5.5460915513027178</v>
       </c>
-      <c r="M14" s="79">
-        <f t="shared" si="5"/>
+      <c r="M14" s="77">
+        <f t="shared" si="7"/>
         <v>0.99911575415289455</v>
       </c>
-      <c r="N14" s="79">
-        <f t="shared" si="6"/>
+      <c r="N14" s="77">
+        <f t="shared" si="8"/>
         <v>4.2044141131586402E-2</v>
       </c>
       <c r="O14" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-0.75709612692609174</v>
       </c>
       <c r="P14" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-5.7715099019065463E-2</v>
       </c>
       <c r="Q14" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>4.1851184590526405</v>
       </c>
       <c r="R14" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>4.214549357844751</v>
       </c>
       <c r="S14" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2.0137</v>
       </c>
       <c r="T14" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.70000000000000007</v>
       </c>
       <c r="V14" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.26370000000000005</v>
       </c>
       <c r="W14" s="46">
         <v>0</v>
       </c>
-      <c r="Y14" s="71">
-        <f>(E14+ K14) / 1000</f>
+      <c r="Y14" s="69">
+        <f t="shared" si="3"/>
         <v>-0.81551138702742154</v>
       </c>
-      <c r="Z14" s="72">
-        <f>(F14+ L14) / 1000</f>
+      <c r="Z14" s="70">
+        <f t="shared" si="4"/>
         <v>4.1937720915513026</v>
       </c>
-      <c r="AB14" s="75">
-        <f t="shared" si="14"/>
+      <c r="AB14" s="73">
+        <f t="shared" si="16"/>
         <v>4.2044141131586402E-2</v>
       </c>
-      <c r="AC14" s="76">
-        <f t="shared" si="15"/>
+      <c r="AC14" s="74">
+        <f t="shared" si="17"/>
         <v>-0.99911575415289455</v>
       </c>
     </row>
@@ -1792,66 +1792,66 @@
         <v>815.27800000000002</v>
       </c>
       <c r="K15" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.23338702742143611</v>
       </c>
       <c r="L15" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5.5460915513027178</v>
       </c>
-      <c r="M15" s="79">
-        <f t="shared" si="5"/>
+      <c r="M15" s="77">
+        <f t="shared" si="7"/>
         <v>0.99911575415289455</v>
       </c>
-      <c r="N15" s="79">
-        <f t="shared" si="6"/>
+      <c r="N15" s="77">
+        <f t="shared" si="8"/>
         <v>-4.2044141131586402E-2</v>
       </c>
       <c r="O15" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>5.7715099019065463E-2</v>
       </c>
       <c r="P15" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.75709612692609174</v>
       </c>
       <c r="Q15" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>4.214549357844751</v>
       </c>
       <c r="R15" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>4.1851184590526405</v>
       </c>
       <c r="S15" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2.0137</v>
       </c>
       <c r="T15" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.70000000000000007</v>
       </c>
       <c r="V15" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.26370000000000005</v>
       </c>
       <c r="W15" s="46">
         <v>0</v>
       </c>
-      <c r="Y15" s="71">
-        <f>(E15+ K15) / 1000</f>
+      <c r="Y15" s="69">
+        <f t="shared" si="3"/>
         <v>2.333870274214361E-4</v>
       </c>
-      <c r="Z15" s="72">
-        <f>(F15+ L15) / 1000</f>
+      <c r="Z15" s="70">
+        <f t="shared" si="4"/>
         <v>4.2280800915513028</v>
       </c>
-      <c r="AB15" s="75">
-        <f t="shared" si="14"/>
+      <c r="AB15" s="73">
+        <f t="shared" si="16"/>
         <v>-4.2044141131586402E-2</v>
       </c>
-      <c r="AC15" s="76">
-        <f t="shared" si="15"/>
+      <c r="AC15" s="74">
+        <f t="shared" si="17"/>
         <v>-0.99911575415289455</v>
       </c>
     </row>
@@ -1881,66 +1881,66 @@
         <v>809.5139999999999</v>
       </c>
       <c r="K16" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.69851417157525686</v>
       </c>
       <c r="L16" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5.5068756071032263</v>
       </c>
-      <c r="M16" s="79">
-        <f t="shared" si="5"/>
+      <c r="M16" s="77">
+        <f t="shared" si="7"/>
         <v>0.99205109117334289</v>
       </c>
-      <c r="N16" s="79">
-        <f t="shared" si="6"/>
+      <c r="N16" s="77">
+        <f t="shared" si="8"/>
         <v>-0.12583573618721974</v>
       </c>
       <c r="O16" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.87211860391775464</v>
       </c>
       <c r="P16" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.5665543677390947</v>
       </c>
       <c r="Q16" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>4.1754206320584233</v>
       </c>
       <c r="R16" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>4.08733561672737</v>
       </c>
       <c r="S16" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2.0137</v>
       </c>
       <c r="T16" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.7</v>
       </c>
       <c r="V16" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.26370000000000005</v>
       </c>
       <c r="W16" s="46">
         <v>0</v>
       </c>
-      <c r="Y16" s="71">
-        <f>(E16+ K16) / 1000</f>
+      <c r="Y16" s="69">
+        <f t="shared" si="3"/>
         <v>0.81597651417157535</v>
       </c>
-      <c r="Z16" s="72">
-        <f>(F16+ L16) / 1000</f>
+      <c r="Z16" s="70">
+        <f t="shared" si="4"/>
         <v>4.1937328756071031</v>
       </c>
-      <c r="AB16" s="75">
-        <f t="shared" si="14"/>
+      <c r="AB16" s="73">
+        <f t="shared" si="16"/>
         <v>-0.12583573618721974</v>
       </c>
-      <c r="AC16" s="76">
-        <f t="shared" si="15"/>
+      <c r="AC16" s="74">
+        <f t="shared" si="17"/>
         <v>-0.99205109117334289</v>
       </c>
     </row>
@@ -1970,66 +1970,66 @@
         <v>798.02500000000009</v>
       </c>
       <c r="K17" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.1586965344402667</v>
       </c>
       <c r="L17" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5.4287220725577878</v>
       </c>
-      <c r="M17" s="79">
-        <f t="shared" si="5"/>
+      <c r="M17" s="77">
+        <f t="shared" si="7"/>
         <v>0.97797191002662365</v>
       </c>
-      <c r="N17" s="79">
-        <f t="shared" si="6"/>
+      <c r="N17" s="77">
+        <f t="shared" si="8"/>
         <v>-0.20873654016218099</v>
       </c>
       <c r="O17" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.6803556349562414</v>
       </c>
       <c r="P17" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.3649359719748784</v>
       </c>
       <c r="Q17" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>4.0680085669842052</v>
       </c>
       <c r="R17" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3.9218929888706788</v>
       </c>
       <c r="S17" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2.0137</v>
       </c>
       <c r="T17" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.7000000000000004</v>
       </c>
       <c r="V17" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.26370000000000005</v>
       </c>
       <c r="W17" s="46">
         <v>0</v>
       </c>
-      <c r="Y17" s="71">
-        <f>(E17+ K17) / 1000</f>
+      <c r="Y17" s="69">
+        <f t="shared" si="3"/>
         <v>1.6259506965344401</v>
       </c>
-      <c r="Z17" s="72">
-        <f>(F17+ L17) / 1000</f>
+      <c r="Z17" s="70">
+        <f t="shared" si="4"/>
         <v>4.090972722072558</v>
       </c>
-      <c r="AB17" s="75">
-        <f t="shared" si="14"/>
+      <c r="AB17" s="73">
+        <f t="shared" si="16"/>
         <v>-0.20873654016218099</v>
       </c>
-      <c r="AC17" s="76">
-        <f t="shared" si="15"/>
+      <c r="AC17" s="74">
+        <f t="shared" si="17"/>
         <v>-0.97797191002662365</v>
       </c>
     </row>
@@ -2059,66 +2059,66 @@
         <v>780.89399999999978</v>
       </c>
       <c r="K18" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.6106936787875619</v>
       </c>
       <c r="L18" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5.3121809902443831</v>
       </c>
-      <c r="M18" s="79">
-        <f t="shared" si="5"/>
+      <c r="M18" s="77">
+        <f t="shared" si="7"/>
         <v>0.95697729962968525</v>
       </c>
-      <c r="N18" s="79">
-        <f t="shared" si="6"/>
+      <c r="N18" s="77">
+        <f t="shared" si="8"/>
         <v>-0.29016279567421399</v>
       </c>
       <c r="O18" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.4767112514508232</v>
       </c>
       <c r="P18" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>3.1465953611916024</v>
       </c>
       <c r="Q18" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3.8930732974957305</v>
       </c>
       <c r="R18" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3.6899593405237807</v>
       </c>
       <c r="S18" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2.0137</v>
       </c>
       <c r="T18" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.69999999999999962</v>
       </c>
       <c r="V18" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.26370000000000005</v>
       </c>
       <c r="W18" s="46">
         <v>0</v>
       </c>
-      <c r="Y18" s="71">
-        <f>(E18+ K18) / 1000</f>
+      <c r="Y18" s="69">
+        <f t="shared" si="3"/>
         <v>2.4244276936787874</v>
       </c>
-      <c r="Z18" s="72">
-        <f>(F18+ L18) / 1000</f>
+      <c r="Z18" s="70">
+        <f t="shared" si="4"/>
         <v>3.9205271809902449</v>
       </c>
-      <c r="AB18" s="75">
-        <f t="shared" si="14"/>
+      <c r="AB18" s="73">
+        <f t="shared" si="16"/>
         <v>-0.29016279567421399</v>
       </c>
-      <c r="AC18" s="76">
-        <f t="shared" si="15"/>
+      <c r="AC18" s="74">
+        <f t="shared" si="17"/>
         <v>-0.95697729962968525</v>
       </c>
     </row>
@@ -2148,66 +2148,66 @@
         <v>758.24000000000024</v>
       </c>
       <c r="K19" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.051299389004317</v>
       </c>
       <c r="L19" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5.1580783065663631</v>
       </c>
-      <c r="M19" s="79">
-        <f t="shared" si="5"/>
+      <c r="M19" s="77">
+        <f t="shared" si="7"/>
         <v>0.92921605234486804</v>
       </c>
-      <c r="N19" s="79">
-        <f t="shared" si="6"/>
+      <c r="N19" s="77">
+        <f t="shared" si="8"/>
         <v>-0.36953691028721253</v>
       </c>
       <c r="O19" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3.255554082290292</v>
       </c>
       <c r="P19" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>3.9060053189316997</v>
       </c>
       <c r="Q19" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3.6518508402939585</v>
       </c>
       <c r="R19" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3.3931750030929093</v>
       </c>
       <c r="S19" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2.0137</v>
       </c>
       <c r="T19" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.70000000000000018</v>
       </c>
       <c r="V19" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.26370000000000005</v>
       </c>
       <c r="W19" s="46">
         <v>0</v>
       </c>
-      <c r="Y19" s="71">
-        <f>(E19+ K19) / 1000</f>
+      <c r="Y19" s="69">
+        <f t="shared" si="3"/>
         <v>3.2057622993890043</v>
       </c>
-      <c r="Z19" s="72">
-        <f>(F19+ L19) / 1000</f>
+      <c r="Z19" s="70">
+        <f t="shared" si="4"/>
         <v>3.6836000783065663</v>
       </c>
-      <c r="AB19" s="75">
-        <f t="shared" si="14"/>
+      <c r="AB19" s="73">
+        <f t="shared" si="16"/>
         <v>-0.36953691028721253</v>
       </c>
-      <c r="AC19" s="76">
-        <f t="shared" si="15"/>
+      <c r="AC19" s="74">
+        <f t="shared" si="17"/>
         <v>-0.92921605234486804</v>
       </c>
     </row>
@@ -2237,66 +2237,66 @@
         <v>730.22599999999966</v>
       </c>
       <c r="K20" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.4773929467920039</v>
       </c>
       <c r="L20" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4.9675069388160127</v>
       </c>
-      <c r="M20" s="79">
-        <f t="shared" si="5"/>
+      <c r="M20" s="77">
+        <f t="shared" si="7"/>
         <v>0.89488505473176228</v>
       </c>
-      <c r="N20" s="79">
-        <f t="shared" si="6"/>
+      <c r="N20" s="77">
+        <f t="shared" si="8"/>
         <v>-0.44629669371140412</v>
       </c>
       <c r="O20" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4.0113768378970915</v>
       </c>
       <c r="P20" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4.6377963762093248</v>
       </c>
       <c r="Q20" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3.3460473358601757</v>
       </c>
       <c r="R20" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3.033639650262193</v>
       </c>
       <c r="S20" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2.0137</v>
       </c>
       <c r="T20" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.69999999999999962</v>
       </c>
       <c r="V20" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.26370000000000005</v>
       </c>
       <c r="W20" s="46">
         <v>0</v>
       </c>
-      <c r="Y20" s="71">
-        <f>(E20+ K20) / 1000</f>
+      <c r="Y20" s="69">
+        <f t="shared" si="3"/>
         <v>3.9644283929467918</v>
       </c>
-      <c r="Z20" s="72">
-        <f>(F20+ L20) / 1000</f>
+      <c r="Z20" s="70">
+        <f t="shared" si="4"/>
         <v>3.381867506938816</v>
       </c>
-      <c r="AB20" s="75">
-        <f t="shared" si="14"/>
+      <c r="AB20" s="73">
+        <f t="shared" si="16"/>
         <v>-0.44629669371140412</v>
       </c>
-      <c r="AC20" s="76">
-        <f t="shared" si="15"/>
+      <c r="AC20" s="74">
+        <f t="shared" si="17"/>
         <v>-0.89488505473176228</v>
       </c>
     </row>
@@ -2326,66 +2326,66 @@
         <v>697.04800000000068</v>
       </c>
       <c r="K21" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.885981849354208</v>
       </c>
       <c r="L21" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4.7418044840754527</v>
       </c>
-      <c r="M21" s="79">
-        <f t="shared" si="5"/>
+      <c r="M21" s="77">
+        <f t="shared" si="7"/>
         <v>0.85422527185650377</v>
       </c>
-      <c r="N21" s="79">
-        <f t="shared" si="6"/>
+      <c r="N21" s="77">
+        <f t="shared" si="8"/>
         <v>-0.51990305338753517</v>
       </c>
       <c r="O21" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4.7388361730008697</v>
       </c>
       <c r="P21" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>5.3367938633004224</v>
       </c>
       <c r="Q21" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2.9778257642015618</v>
       </c>
       <c r="R21" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2.6138936268302873</v>
       </c>
       <c r="S21" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2.0137</v>
       </c>
       <c r="T21" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.7</v>
       </c>
       <c r="V21" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.26370000000000005</v>
       </c>
       <c r="W21" s="46">
         <v>0</v>
       </c>
-      <c r="Y21" s="71">
-        <f>(E21+ K21) / 1000</f>
+      <c r="Y21" s="69">
+        <f t="shared" si="3"/>
         <v>4.6950629818493539</v>
       </c>
-      <c r="Z21" s="72">
-        <f>(F21+ L21) / 1000</f>
+      <c r="Z21" s="70">
+        <f t="shared" si="4"/>
         <v>3.017463804484076</v>
       </c>
-      <c r="AB21" s="75">
-        <f t="shared" si="14"/>
+      <c r="AB21" s="73">
+        <f t="shared" si="16"/>
         <v>-0.51990305338753517</v>
       </c>
-      <c r="AC21" s="76">
-        <f t="shared" si="15"/>
+      <c r="AC21" s="74">
+        <f t="shared" si="17"/>
         <v>-0.85422527185650377</v>
       </c>
     </row>
@@ -2415,147 +2415,147 @@
         <v>658.94200000000001</v>
       </c>
       <c r="K22" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.2741507987478387</v>
       </c>
       <c r="L22" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4.4825815717127657</v>
       </c>
-      <c r="M22" s="79">
-        <f t="shared" si="5"/>
+      <c r="M22" s="77">
+        <f t="shared" si="7"/>
         <v>0.80752685492933984</v>
       </c>
-      <c r="N22" s="79">
-        <f t="shared" si="6"/>
+      <c r="N22" s="77">
+        <f t="shared" si="8"/>
         <v>-0.58983080503473939</v>
       </c>
       <c r="O22" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>5.4327874499759838</v>
       </c>
       <c r="P22" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>5.9980562484265212</v>
       </c>
       <c r="Q22" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2.5497882001904459</v>
       </c>
       <c r="R22" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2.1369066366661285</v>
       </c>
       <c r="S22" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2.0137</v>
       </c>
       <c r="T22" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.6999999999999994</v>
       </c>
       <c r="V22" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.26370000000000005</v>
       </c>
       <c r="W22" s="46">
         <v>0</v>
       </c>
-      <c r="Y22" s="71">
-        <f>(E22+ K22) / 1000</f>
+      <c r="Y22" s="69">
+        <f t="shared" si="3"/>
         <v>5.3924991507987476</v>
       </c>
-      <c r="Z22" s="72">
-        <f>(F22+ L22) / 1000</f>
+      <c r="Z22" s="70">
+        <f t="shared" si="4"/>
         <v>2.5929635815717127</v>
       </c>
-      <c r="AB22" s="75">
-        <f t="shared" si="14"/>
+      <c r="AB22" s="73">
+        <f t="shared" si="16"/>
         <v>-0.58983080503473939</v>
       </c>
-      <c r="AC22" s="76">
-        <f t="shared" si="15"/>
+      <c r="AC22" s="74">
+        <f t="shared" si="17"/>
         <v>-0.80752685492933984</v>
       </c>
     </row>
-    <row r="23" spans="4:29" s="56" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D23" s="56" t="s">
+    <row r="23" spans="4:29" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D23" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="E23" s="57">
+      <c r="E23" s="55">
         <v>6048.1670000000004</v>
       </c>
-      <c r="F23" s="57">
+      <c r="F23" s="55">
         <v>2107.1790000000001</v>
       </c>
-      <c r="G23" s="58">
+      <c r="G23" s="56">
         <v>2013.7</v>
       </c>
-      <c r="H23" s="59">
-        <f t="shared" ref="H23" si="16">SQRT(POWER(E23-E24, 2)+POWER(F23-F24, 2))</f>
+      <c r="H23" s="57">
+        <f t="shared" ref="H23" si="18">SQRT(POWER(E23-E24, 2)+POWER(F23-F24, 2))</f>
         <v>4214.3580000000002</v>
       </c>
-      <c r="I23" s="60">
-        <f t="shared" ref="I23" si="17">(F23-F24)</f>
+      <c r="I23" s="58">
+        <f t="shared" ref="I23" si="19">(F23-F24)</f>
         <v>4214.3580000000002</v>
       </c>
-      <c r="J23" s="60">
-        <f t="shared" ref="J23" si="18">-(E23-E24)</f>
+      <c r="J23" s="58">
+        <f t="shared" ref="J23" si="20">-(E23-E24)</f>
         <v>0</v>
       </c>
-      <c r="K23" s="60">
-        <f t="shared" ref="K23" si="19">I23*($E$2/SQRT(POWER(I23,2)+POWER(J23,2)))</f>
+      <c r="K23" s="58">
+        <f t="shared" ref="K23" si="21">I23*($E$2/SQRT(POWER(I23,2)+POWER(J23,2)))</f>
         <v>5.5510000000000002</v>
       </c>
-      <c r="L23" s="60">
-        <f t="shared" ref="L23" si="20">J23*($E$2/SQRT(POWER(I23,2)+POWER(J23,2)))</f>
+      <c r="L23" s="58">
+        <f t="shared" ref="L23" si="22">J23*($E$2/SQRT(POWER(I23,2)+POWER(J23,2)))</f>
         <v>0</v>
       </c>
-      <c r="M23" s="79">
-        <f t="shared" si="5"/>
+      <c r="M23" s="77">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="N23" s="79">
-        <f t="shared" si="6"/>
+      <c r="N23" s="77">
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
       <c r="O23" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>6.0426159999999998</v>
       </c>
       <c r="P23" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>6.0426159999999998</v>
       </c>
       <c r="Q23" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.35</v>
       </c>
       <c r="R23" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-0.35</v>
       </c>
-      <c r="S23" s="61">
-        <f t="shared" ref="S23" si="21">(G23)/1000</f>
+      <c r="S23" s="59">
+        <f t="shared" ref="S23" si="23">(G23)/1000</f>
         <v>2.0137</v>
       </c>
-      <c r="T23" s="62"/>
-      <c r="V23" s="63"/>
-      <c r="W23" s="64"/>
-      <c r="Y23" s="71">
-        <f>(E23+ K23) / 1000</f>
+      <c r="T23" s="60"/>
+      <c r="V23" s="61"/>
+      <c r="W23" s="62"/>
+      <c r="Y23" s="69">
+        <f t="shared" si="3"/>
         <v>6.0537180000000008</v>
       </c>
-      <c r="Z23" s="72">
-        <f>(F23+ L23) / 1000</f>
+      <c r="Z23" s="70">
+        <f t="shared" si="4"/>
         <v>2.1071789999999999</v>
       </c>
-      <c r="AB23" s="75">
-        <f t="shared" si="14"/>
+      <c r="AB23" s="73">
+        <f t="shared" si="16"/>
         <v>-1</v>
       </c>
-      <c r="AC23" s="76">
-        <f t="shared" si="15"/>
+      <c r="AC23" s="74">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -2575,78 +2575,78 @@
         <v>2013.7</v>
       </c>
       <c r="H24" s="12">
-        <f t="shared" ref="H24:H39" si="22">SQRT(POWER(E24-E25, 2)+POWER(F24-F25, 2))</f>
+        <f t="shared" ref="H24:H39" si="24">SQRT(POWER(E24-E25, 2)+POWER(F24-F25, 2))</f>
         <v>816.00010696567938</v>
       </c>
       <c r="I24" s="13">
-        <f t="shared" ref="I24:I39" si="23">(F24-F25)</f>
+        <f t="shared" ref="I24:I39" si="25">(F24-F25)</f>
         <v>481.30200000000013</v>
       </c>
       <c r="J24" s="13">
-        <f t="shared" ref="J24:J39" si="24">-(E24-E25)</f>
+        <f t="shared" ref="J24:J39" si="26">-(E24-E25)</f>
         <v>-658.94200000000001</v>
       </c>
       <c r="K24" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.2741507987478387</v>
       </c>
       <c r="L24" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-4.4825815717127657</v>
       </c>
-      <c r="M24" s="79">
-        <f t="shared" si="5"/>
+      <c r="M24" s="77">
+        <f t="shared" si="7"/>
         <v>-0.80752685492933984</v>
       </c>
-      <c r="N24" s="79">
-        <f t="shared" si="6"/>
+      <c r="N24" s="77">
+        <f t="shared" si="8"/>
         <v>-0.58983080503473939</v>
       </c>
       <c r="O24" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>5.9980562484265212</v>
       </c>
       <c r="P24" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>5.4327874499759838</v>
       </c>
       <c r="Q24" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-2.1369066366661285</v>
       </c>
       <c r="R24" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-2.5497882001904459</v>
       </c>
       <c r="S24" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2.0137</v>
       </c>
       <c r="T24" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.6999999999999994</v>
       </c>
       <c r="V24" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.26370000000000005</v>
       </c>
       <c r="W24" s="46">
         <v>0</v>
       </c>
-      <c r="Y24" s="71">
-        <f>(E24+ K24) / 1000</f>
+      <c r="Y24" s="69">
+        <f t="shared" si="3"/>
         <v>6.0514411507987482</v>
       </c>
-      <c r="Z24" s="72">
-        <f>(F24+ L24) / 1000</f>
+      <c r="Z24" s="70">
+        <f t="shared" si="4"/>
         <v>-2.1116615815717128</v>
       </c>
-      <c r="AB24" s="75">
-        <f t="shared" si="14"/>
+      <c r="AB24" s="73">
+        <f t="shared" si="16"/>
         <v>-0.58983080503473939</v>
       </c>
-      <c r="AC24" s="76">
-        <f t="shared" si="15"/>
+      <c r="AC24" s="74">
+        <f t="shared" si="17"/>
         <v>0.80752685492933984</v>
       </c>
     </row>
@@ -2655,89 +2655,89 @@
         <v>18</v>
       </c>
       <c r="E25" s="5">
-        <f t="shared" ref="E25:F40" si="25">E8*-1</f>
+        <f t="shared" ref="E25:F40" si="27">E8*-1</f>
         <v>5389.2250000000004</v>
       </c>
       <c r="F25" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>-2588.4810000000002</v>
       </c>
       <c r="G25">
         <v>2013.7</v>
       </c>
       <c r="H25" s="12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>816.00020856921412</v>
       </c>
       <c r="I25" s="13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>424.24099999999999</v>
       </c>
       <c r="J25" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>-697.04800000000068</v>
       </c>
       <c r="K25" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.885981849354208</v>
       </c>
       <c r="L25" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-4.7418044840754527</v>
       </c>
-      <c r="M25" s="79">
-        <f t="shared" si="5"/>
+      <c r="M25" s="77">
+        <f t="shared" si="7"/>
         <v>-0.85422527185650377</v>
       </c>
-      <c r="N25" s="79">
-        <f t="shared" si="6"/>
+      <c r="N25" s="77">
+        <f t="shared" si="8"/>
         <v>-0.51990305338753517</v>
       </c>
       <c r="O25" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>5.3367938633004224</v>
       </c>
       <c r="P25" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4.7388361730008697</v>
       </c>
       <c r="Q25" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-2.6138936268302873</v>
       </c>
       <c r="R25" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-2.9778257642015618</v>
       </c>
       <c r="S25" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2.0137</v>
       </c>
       <c r="T25" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.7</v>
       </c>
       <c r="V25" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.26370000000000005</v>
       </c>
       <c r="W25" s="46">
         <v>0</v>
       </c>
-      <c r="Y25" s="71">
-        <f>(E25+ K25) / 1000</f>
+      <c r="Y25" s="69">
+        <f t="shared" si="3"/>
         <v>5.3921109818493544</v>
       </c>
-      <c r="Z25" s="72">
-        <f>(F25+ L25) / 1000</f>
+      <c r="Z25" s="70">
+        <f t="shared" si="4"/>
         <v>-2.5932228044840757</v>
       </c>
-      <c r="AB25" s="75">
-        <f t="shared" si="14"/>
+      <c r="AB25" s="73">
+        <f t="shared" si="16"/>
         <v>-0.51990305338753517</v>
       </c>
-      <c r="AC25" s="76">
-        <f t="shared" si="15"/>
+      <c r="AC25" s="74">
+        <f t="shared" si="17"/>
         <v>0.85422527185650377</v>
       </c>
     </row>
@@ -2746,89 +2746,89 @@
         <v>19</v>
       </c>
       <c r="E26" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>4692.1769999999997</v>
       </c>
       <c r="F26" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>-3012.7220000000002</v>
       </c>
       <c r="G26">
         <v>2013.7</v>
       </c>
       <c r="H26" s="12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>815.99977129898718</v>
       </c>
       <c r="I26" s="13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>364.17799999999988</v>
       </c>
       <c r="J26" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>-730.22599999999966</v>
       </c>
       <c r="K26" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.4773929467920039</v>
       </c>
       <c r="L26" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-4.9675069388160127</v>
       </c>
-      <c r="M26" s="79">
-        <f t="shared" si="5"/>
+      <c r="M26" s="77">
+        <f t="shared" si="7"/>
         <v>-0.89488505473176228</v>
       </c>
-      <c r="N26" s="79">
-        <f t="shared" si="6"/>
+      <c r="N26" s="77">
+        <f t="shared" si="8"/>
         <v>-0.44629669371140412</v>
       </c>
       <c r="O26" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4.6377963762093248</v>
       </c>
       <c r="P26" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4.0113768378970915</v>
       </c>
       <c r="Q26" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-3.033639650262193</v>
       </c>
       <c r="R26" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-3.3460473358601757</v>
       </c>
       <c r="S26" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2.0137</v>
       </c>
       <c r="T26" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.69999999999999962</v>
       </c>
       <c r="V26" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.26370000000000005</v>
       </c>
       <c r="W26" s="46">
         <v>0</v>
       </c>
-      <c r="Y26" s="71">
-        <f>(E26+ K26) / 1000</f>
+      <c r="Y26" s="69">
+        <f t="shared" si="3"/>
         <v>4.6946543929467914</v>
       </c>
-      <c r="Z26" s="72">
-        <f>(F26+ L26) / 1000</f>
+      <c r="Z26" s="70">
+        <f t="shared" si="4"/>
         <v>-3.0176895069388161</v>
       </c>
-      <c r="AB26" s="75">
-        <f t="shared" si="14"/>
+      <c r="AB26" s="73">
+        <f t="shared" si="16"/>
         <v>-0.44629669371140412</v>
       </c>
-      <c r="AC26" s="76">
-        <f t="shared" si="15"/>
+      <c r="AC26" s="74">
+        <f t="shared" si="17"/>
         <v>0.89488505473176228</v>
       </c>
     </row>
@@ -2837,89 +2837,89 @@
         <v>20</v>
       </c>
       <c r="E27" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>3961.951</v>
       </c>
       <c r="F27" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>-3376.9</v>
       </c>
       <c r="G27">
         <v>2013.7</v>
       </c>
       <c r="H27" s="12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>815.99967853179965</v>
       </c>
       <c r="I27" s="13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>301.54199999999992</v>
       </c>
       <c r="J27" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>-758.24000000000024</v>
       </c>
       <c r="K27" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.051299389004317</v>
       </c>
       <c r="L27" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-5.1580783065663631</v>
       </c>
-      <c r="M27" s="79">
-        <f t="shared" si="5"/>
+      <c r="M27" s="77">
+        <f t="shared" si="7"/>
         <v>-0.92921605234486804</v>
       </c>
-      <c r="N27" s="79">
-        <f t="shared" si="6"/>
+      <c r="N27" s="77">
+        <f t="shared" si="8"/>
         <v>-0.36953691028721253</v>
       </c>
       <c r="O27" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3.9060053189316997</v>
       </c>
       <c r="P27" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>3.255554082290292</v>
       </c>
       <c r="Q27" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-3.3931750030929093</v>
       </c>
       <c r="R27" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-3.6518508402939585</v>
       </c>
       <c r="S27" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2.0137</v>
       </c>
       <c r="T27" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.70000000000000018</v>
       </c>
       <c r="V27" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.26370000000000005</v>
       </c>
       <c r="W27" s="46">
         <v>0</v>
       </c>
-      <c r="Y27" s="71">
-        <f>(E27+ K27) / 1000</f>
+      <c r="Y27" s="69">
+        <f t="shared" si="3"/>
         <v>3.9640022993890045</v>
       </c>
-      <c r="Z27" s="72">
-        <f>(F27+ L27) / 1000</f>
+      <c r="Z27" s="70">
+        <f t="shared" si="4"/>
         <v>-3.3820580783065668</v>
       </c>
-      <c r="AB27" s="75">
-        <f t="shared" si="14"/>
+      <c r="AB27" s="73">
+        <f t="shared" si="16"/>
         <v>-0.36953691028721253</v>
       </c>
-      <c r="AC27" s="76">
-        <f t="shared" si="15"/>
+      <c r="AC27" s="74">
+        <f t="shared" si="17"/>
         <v>0.92921605234486804</v>
       </c>
     </row>
@@ -2928,89 +2928,89 @@
         <v>21</v>
       </c>
       <c r="E28" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>3203.7109999999998</v>
       </c>
       <c r="F28" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>-3678.442</v>
       </c>
       <c r="G28">
         <v>2013.7</v>
       </c>
       <c r="H28" s="12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>816.00054703719388</v>
       </c>
       <c r="I28" s="13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>236.77300000000014</v>
       </c>
       <c r="J28" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>-780.89399999999978</v>
       </c>
       <c r="K28" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.6106936787875619</v>
       </c>
       <c r="L28" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-5.3121809902443831</v>
       </c>
-      <c r="M28" s="79">
-        <f t="shared" si="5"/>
+      <c r="M28" s="77">
+        <f t="shared" si="7"/>
         <v>-0.95697729962968525</v>
       </c>
-      <c r="N28" s="79">
-        <f t="shared" si="6"/>
+      <c r="N28" s="77">
+        <f t="shared" si="8"/>
         <v>-0.29016279567421399</v>
       </c>
       <c r="O28" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3.1465953611916024</v>
       </c>
       <c r="P28" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.4767112514508232</v>
       </c>
       <c r="Q28" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-3.6899593405237807</v>
       </c>
       <c r="R28" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-3.8930732974957305</v>
       </c>
       <c r="S28" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2.0137</v>
       </c>
       <c r="T28" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.69999999999999962</v>
       </c>
       <c r="V28" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.26370000000000005</v>
       </c>
       <c r="W28" s="46">
         <v>0</v>
       </c>
-      <c r="Y28" s="71">
-        <f>(E28+ K28) / 1000</f>
+      <c r="Y28" s="69">
+        <f t="shared" si="3"/>
         <v>3.2053216936787869</v>
       </c>
-      <c r="Z28" s="72">
-        <f>(F28+ L28) / 1000</f>
+      <c r="Z28" s="70">
+        <f t="shared" si="4"/>
         <v>-3.6837541809902445</v>
       </c>
-      <c r="AB28" s="75">
-        <f t="shared" si="14"/>
+      <c r="AB28" s="73">
+        <f t="shared" si="16"/>
         <v>-0.29016279567421399</v>
       </c>
-      <c r="AC28" s="76">
-        <f t="shared" si="15"/>
+      <c r="AC28" s="74">
+        <f t="shared" si="17"/>
         <v>0.95697729962968525</v>
       </c>
     </row>
@@ -3019,89 +3019,89 @@
         <v>22</v>
       </c>
       <c r="E29" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>2422.817</v>
       </c>
       <c r="F29" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>-3915.2150000000001</v>
       </c>
       <c r="G29">
         <v>2013.7</v>
       </c>
       <c r="H29" s="12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>815.9999196482803</v>
       </c>
       <c r="I29" s="13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>170.32899999999972</v>
       </c>
       <c r="J29" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>-798.02500000000009</v>
       </c>
       <c r="K29" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.1586965344402667</v>
       </c>
       <c r="L29" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-5.4287220725577878</v>
       </c>
-      <c r="M29" s="79">
-        <f t="shared" si="5"/>
+      <c r="M29" s="77">
+        <f t="shared" si="7"/>
         <v>-0.97797191002662365</v>
       </c>
-      <c r="N29" s="79">
-        <f t="shared" si="6"/>
+      <c r="N29" s="77">
+        <f t="shared" si="8"/>
         <v>-0.20873654016218099</v>
       </c>
       <c r="O29" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.3649359719748784</v>
       </c>
       <c r="P29" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.6803556349562414</v>
       </c>
       <c r="Q29" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-3.9218929888706788</v>
       </c>
       <c r="R29" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-4.0680085669842052</v>
       </c>
       <c r="S29" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2.0137</v>
       </c>
       <c r="T29" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.7000000000000004</v>
       </c>
       <c r="V29" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.26370000000000005</v>
       </c>
       <c r="W29" s="46">
         <v>0</v>
       </c>
-      <c r="Y29" s="71">
-        <f>(E29+ K29) / 1000</f>
+      <c r="Y29" s="69">
+        <f t="shared" si="3"/>
         <v>2.4239756965344403</v>
       </c>
-      <c r="Z29" s="72">
-        <f>(F29+ L29) / 1000</f>
+      <c r="Z29" s="70">
+        <f t="shared" si="4"/>
         <v>-3.9206437220725578</v>
       </c>
-      <c r="AB29" s="75">
-        <f t="shared" si="14"/>
+      <c r="AB29" s="73">
+        <f t="shared" si="16"/>
         <v>-0.20873654016218099</v>
       </c>
-      <c r="AC29" s="76">
-        <f t="shared" si="15"/>
+      <c r="AC29" s="74">
+        <f t="shared" si="17"/>
         <v>0.97797191002662365</v>
       </c>
     </row>
@@ -3110,89 +3110,89 @@
         <v>23</v>
       </c>
       <c r="E30" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1624.7919999999999</v>
       </c>
       <c r="F30" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>-4085.5439999999999</v>
       </c>
       <c r="G30">
         <v>2013.7</v>
       </c>
       <c r="H30" s="12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>816.00031208327357</v>
       </c>
       <c r="I30" s="13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>102.68199999999979</v>
       </c>
       <c r="J30" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>-809.5139999999999</v>
       </c>
       <c r="K30" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.69851417157525686</v>
       </c>
       <c r="L30" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-5.5068756071032263</v>
       </c>
-      <c r="M30" s="79">
-        <f t="shared" si="5"/>
+      <c r="M30" s="77">
+        <f t="shared" si="7"/>
         <v>-0.99205109117334289</v>
       </c>
-      <c r="N30" s="79">
-        <f t="shared" si="6"/>
+      <c r="N30" s="77">
+        <f t="shared" si="8"/>
         <v>-0.12583573618721974</v>
       </c>
       <c r="O30" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.5665543677390947</v>
       </c>
       <c r="P30" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.87211860391775464</v>
       </c>
       <c r="Q30" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-4.08733561672737</v>
       </c>
       <c r="R30" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-4.1754206320584233</v>
       </c>
       <c r="S30" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2.0137</v>
       </c>
       <c r="T30" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.7</v>
       </c>
       <c r="V30" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.26370000000000005</v>
       </c>
       <c r="W30" s="46">
         <v>0</v>
       </c>
-      <c r="Y30" s="71">
-        <f>(E30+ K30) / 1000</f>
+      <c r="Y30" s="69">
+        <f t="shared" si="3"/>
         <v>1.6254905141715752</v>
       </c>
-      <c r="Z30" s="72">
-        <f>(F30+ L30) / 1000</f>
+      <c r="Z30" s="70">
+        <f t="shared" si="4"/>
         <v>-4.0910508756071033</v>
       </c>
-      <c r="AB30" s="75">
-        <f t="shared" si="14"/>
+      <c r="AB30" s="73">
+        <f t="shared" si="16"/>
         <v>-0.12583573618721974</v>
       </c>
-      <c r="AC30" s="76">
-        <f t="shared" si="15"/>
+      <c r="AC30" s="74">
+        <f t="shared" si="17"/>
         <v>0.99205109117334289</v>
       </c>
     </row>
@@ -3201,89 +3201,89 @@
         <v>24</v>
       </c>
       <c r="E31" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>815.27800000000002</v>
       </c>
       <c r="F31" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>-4188.2259999999997</v>
       </c>
       <c r="G31">
         <v>2013.7</v>
       </c>
       <c r="H31" s="12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>815.99954420820609</v>
       </c>
       <c r="I31" s="13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>34.307999999999993</v>
       </c>
       <c r="J31" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>-815.27800000000002</v>
       </c>
       <c r="K31" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.23338702742143611</v>
       </c>
       <c r="L31" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-5.5460915513027178</v>
       </c>
-      <c r="M31" s="79">
-        <f t="shared" si="5"/>
+      <c r="M31" s="77">
+        <f t="shared" si="7"/>
         <v>-0.99911575415289455</v>
       </c>
-      <c r="N31" s="79">
-        <f t="shared" si="6"/>
+      <c r="N31" s="77">
+        <f t="shared" si="8"/>
         <v>-4.2044141131586402E-2</v>
       </c>
       <c r="O31" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.75709612692609174</v>
       </c>
       <c r="P31" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>5.7715099019065463E-2</v>
       </c>
       <c r="Q31" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-4.1851184590526405</v>
       </c>
       <c r="R31" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-4.214549357844751</v>
       </c>
       <c r="S31" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2.0137</v>
       </c>
       <c r="T31" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.70000000000000007</v>
       </c>
       <c r="V31" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.26370000000000005</v>
       </c>
       <c r="W31" s="46">
         <v>0</v>
       </c>
-      <c r="Y31" s="71">
-        <f>(E31+ K31) / 1000</f>
+      <c r="Y31" s="69">
+        <f t="shared" si="3"/>
         <v>0.81551138702742154</v>
       </c>
-      <c r="Z31" s="72">
-        <f>(F31+ L31) / 1000</f>
+      <c r="Z31" s="70">
+        <f t="shared" si="4"/>
         <v>-4.1937720915513026</v>
       </c>
-      <c r="AB31" s="75">
-        <f t="shared" si="14"/>
+      <c r="AB31" s="73">
+        <f t="shared" si="16"/>
         <v>-4.2044141131586402E-2</v>
       </c>
-      <c r="AC31" s="76">
-        <f t="shared" si="15"/>
+      <c r="AC31" s="74">
+        <f t="shared" si="17"/>
         <v>0.99911575415289455</v>
       </c>
     </row>
@@ -3292,89 +3292,89 @@
         <v>25</v>
       </c>
       <c r="E32" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="F32" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>-4222.5339999999997</v>
       </c>
       <c r="G32">
         <v>2013.7</v>
       </c>
       <c r="H32" s="12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>815.99954420820609</v>
       </c>
       <c r="I32" s="13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>-34.307999999999993</v>
       </c>
       <c r="J32" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>-815.27800000000002</v>
       </c>
       <c r="K32" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-0.23338702742143611</v>
       </c>
       <c r="L32" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-5.5460915513027178</v>
       </c>
-      <c r="M32" s="79">
-        <f t="shared" si="5"/>
+      <c r="M32" s="77">
+        <f t="shared" si="7"/>
         <v>-0.99911575415289455</v>
       </c>
-      <c r="N32" s="79">
-        <f t="shared" si="6"/>
+      <c r="N32" s="77">
+        <f t="shared" si="8"/>
         <v>4.2044141131586402E-2</v>
       </c>
       <c r="O32" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-5.7715099019065463E-2</v>
       </c>
       <c r="P32" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-0.75709612692609174</v>
       </c>
       <c r="Q32" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-4.214549357844751</v>
       </c>
       <c r="R32" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-4.1851184590526405</v>
       </c>
       <c r="S32" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2.0137</v>
       </c>
       <c r="T32" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.70000000000000007</v>
       </c>
       <c r="V32" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.26370000000000005</v>
       </c>
       <c r="W32" s="46">
         <v>0</v>
       </c>
-      <c r="Y32" s="71">
-        <f>(E32+ K32) / 1000</f>
+      <c r="Y32" s="69">
+        <f t="shared" si="3"/>
         <v>-2.333870274214361E-4</v>
       </c>
-      <c r="Z32" s="72">
-        <f>(F32+ L32) / 1000</f>
+      <c r="Z32" s="70">
+        <f t="shared" si="4"/>
         <v>-4.2280800915513028</v>
       </c>
-      <c r="AB32" s="75">
-        <f t="shared" si="14"/>
+      <c r="AB32" s="73">
+        <f t="shared" si="16"/>
         <v>4.2044141131586402E-2</v>
       </c>
-      <c r="AC32" s="76">
-        <f t="shared" si="15"/>
+      <c r="AC32" s="74">
+        <f t="shared" si="17"/>
         <v>0.99911575415289455</v>
       </c>
     </row>
@@ -3383,89 +3383,89 @@
         <v>26</v>
       </c>
       <c r="E33" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>-815.27800000000002</v>
       </c>
       <c r="F33" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>-4188.2259999999997</v>
       </c>
       <c r="G33">
         <v>2013.7</v>
       </c>
       <c r="H33" s="12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>816.00031208327357</v>
       </c>
       <c r="I33" s="13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>-102.68199999999979</v>
       </c>
       <c r="J33" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>-809.5139999999999</v>
       </c>
       <c r="K33" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-0.69851417157525686</v>
       </c>
       <c r="L33" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-5.5068756071032263</v>
       </c>
-      <c r="M33" s="79">
-        <f t="shared" si="5"/>
+      <c r="M33" s="77">
+        <f t="shared" si="7"/>
         <v>-0.99205109117334289</v>
       </c>
-      <c r="N33" s="79">
-        <f t="shared" si="6"/>
+      <c r="N33" s="77">
+        <f t="shared" si="8"/>
         <v>0.12583573618721974</v>
       </c>
       <c r="O33" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-0.87211860391775464</v>
       </c>
       <c r="P33" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-1.5665543677390947</v>
       </c>
       <c r="Q33" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-4.1754206320584233</v>
       </c>
       <c r="R33" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-4.08733561672737</v>
       </c>
       <c r="S33" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2.0137</v>
       </c>
       <c r="T33" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.7</v>
       </c>
       <c r="V33" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.26370000000000005</v>
       </c>
       <c r="W33" s="46">
         <v>0</v>
       </c>
-      <c r="Y33" s="71">
-        <f>(E33+ K33) / 1000</f>
+      <c r="Y33" s="69">
+        <f t="shared" si="3"/>
         <v>-0.81597651417157535</v>
       </c>
-      <c r="Z33" s="72">
-        <f>(F33+ L33) / 1000</f>
+      <c r="Z33" s="70">
+        <f t="shared" si="4"/>
         <v>-4.1937328756071031</v>
       </c>
-      <c r="AB33" s="75">
-        <f t="shared" si="14"/>
+      <c r="AB33" s="73">
+        <f t="shared" si="16"/>
         <v>0.12583573618721974</v>
       </c>
-      <c r="AC33" s="76">
-        <f t="shared" si="15"/>
+      <c r="AC33" s="74">
+        <f t="shared" si="17"/>
         <v>0.99205109117334289</v>
       </c>
     </row>
@@ -3474,89 +3474,89 @@
         <v>27</v>
       </c>
       <c r="E34" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>-1624.7919999999999</v>
       </c>
       <c r="F34" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>-4085.5439999999999</v>
       </c>
       <c r="G34">
         <v>2013.7</v>
       </c>
       <c r="H34" s="12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>815.9999196482803</v>
       </c>
       <c r="I34" s="13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>-170.32899999999972</v>
       </c>
       <c r="J34" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>-798.02500000000009</v>
       </c>
       <c r="K34" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-1.1586965344402667</v>
       </c>
       <c r="L34" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-5.4287220725577878</v>
       </c>
-      <c r="M34" s="79">
-        <f t="shared" si="5"/>
+      <c r="M34" s="77">
+        <f t="shared" si="7"/>
         <v>-0.97797191002662365</v>
       </c>
-      <c r="N34" s="79">
-        <f t="shared" si="6"/>
+      <c r="N34" s="77">
+        <f t="shared" si="8"/>
         <v>0.20873654016218099</v>
       </c>
       <c r="O34" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-1.6803556349562414</v>
       </c>
       <c r="P34" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-2.3649359719748784</v>
       </c>
       <c r="Q34" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-4.0680085669842052</v>
       </c>
       <c r="R34" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-3.9218929888706788</v>
       </c>
       <c r="S34" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2.0137</v>
       </c>
       <c r="T34" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.7000000000000004</v>
       </c>
       <c r="V34" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.26370000000000005</v>
       </c>
       <c r="W34" s="46">
         <v>0</v>
       </c>
-      <c r="Y34" s="71">
-        <f>(E34+ K34) / 1000</f>
+      <c r="Y34" s="69">
+        <f t="shared" si="3"/>
         <v>-1.6259506965344401</v>
       </c>
-      <c r="Z34" s="72">
-        <f>(F34+ L34) / 1000</f>
+      <c r="Z34" s="70">
+        <f t="shared" si="4"/>
         <v>-4.090972722072558</v>
       </c>
-      <c r="AB34" s="75">
-        <f t="shared" si="14"/>
+      <c r="AB34" s="73">
+        <f t="shared" si="16"/>
         <v>0.20873654016218099</v>
       </c>
-      <c r="AC34" s="76">
-        <f t="shared" si="15"/>
+      <c r="AC34" s="74">
+        <f t="shared" si="17"/>
         <v>0.97797191002662365</v>
       </c>
     </row>
@@ -3565,89 +3565,89 @@
         <v>28</v>
       </c>
       <c r="E35" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>-2422.817</v>
       </c>
       <c r="F35" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>-3915.2150000000001</v>
       </c>
       <c r="G35">
         <v>2013.7</v>
       </c>
       <c r="H35" s="12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>816.00054703719388</v>
       </c>
       <c r="I35" s="13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>-236.77300000000014</v>
       </c>
       <c r="J35" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>-780.89399999999978</v>
       </c>
       <c r="K35" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-1.6106936787875619</v>
       </c>
       <c r="L35" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-5.3121809902443831</v>
       </c>
-      <c r="M35" s="79">
-        <f t="shared" si="5"/>
+      <c r="M35" s="77">
+        <f t="shared" si="7"/>
         <v>-0.95697729962968525</v>
       </c>
-      <c r="N35" s="79">
-        <f t="shared" si="6"/>
+      <c r="N35" s="77">
+        <f t="shared" si="8"/>
         <v>0.29016279567421399</v>
       </c>
       <c r="O35" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-2.4767112514508232</v>
       </c>
       <c r="P35" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-3.1465953611916024</v>
       </c>
       <c r="Q35" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-3.8930732974957305</v>
       </c>
       <c r="R35" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-3.6899593405237807</v>
       </c>
       <c r="S35" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2.0137</v>
       </c>
       <c r="T35" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.69999999999999962</v>
       </c>
       <c r="V35" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.26370000000000005</v>
       </c>
       <c r="W35" s="46">
         <v>0</v>
       </c>
-      <c r="Y35" s="71">
-        <f>(E35+ K35) / 1000</f>
+      <c r="Y35" s="69">
+        <f t="shared" si="3"/>
         <v>-2.4244276936787874</v>
       </c>
-      <c r="Z35" s="72">
-        <f>(F35+ L35) / 1000</f>
+      <c r="Z35" s="70">
+        <f t="shared" si="4"/>
         <v>-3.9205271809902449</v>
       </c>
-      <c r="AB35" s="75">
-        <f t="shared" si="14"/>
+      <c r="AB35" s="73">
+        <f t="shared" si="16"/>
         <v>0.29016279567421399</v>
       </c>
-      <c r="AC35" s="76">
-        <f t="shared" si="15"/>
+      <c r="AC35" s="74">
+        <f t="shared" si="17"/>
         <v>0.95697729962968525</v>
       </c>
     </row>
@@ -3656,89 +3656,89 @@
         <v>29</v>
       </c>
       <c r="E36" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>-3203.7109999999998</v>
       </c>
       <c r="F36" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>-3678.442</v>
       </c>
       <c r="G36">
         <v>2013.7</v>
       </c>
       <c r="H36" s="12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>815.99967853179965</v>
       </c>
       <c r="I36" s="13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>-301.54199999999992</v>
       </c>
       <c r="J36" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>-758.24000000000024</v>
       </c>
       <c r="K36" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-2.051299389004317</v>
       </c>
       <c r="L36" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-5.1580783065663631</v>
       </c>
-      <c r="M36" s="79">
-        <f t="shared" si="5"/>
+      <c r="M36" s="77">
+        <f t="shared" si="7"/>
         <v>-0.92921605234486804</v>
       </c>
-      <c r="N36" s="79">
-        <f t="shared" si="6"/>
+      <c r="N36" s="77">
+        <f t="shared" si="8"/>
         <v>0.36953691028721253</v>
       </c>
       <c r="O36" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-3.255554082290292</v>
       </c>
       <c r="P36" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-3.9060053189316997</v>
       </c>
       <c r="Q36" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-3.6518508402939585</v>
       </c>
       <c r="R36" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-3.3931750030929093</v>
       </c>
       <c r="S36" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2.0137</v>
       </c>
       <c r="T36" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.70000000000000018</v>
       </c>
       <c r="V36" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.26370000000000005</v>
       </c>
       <c r="W36" s="46">
         <v>0</v>
       </c>
-      <c r="Y36" s="71">
-        <f>(E36+ K36) / 1000</f>
+      <c r="Y36" s="69">
+        <f t="shared" si="3"/>
         <v>-3.2057622993890043</v>
       </c>
-      <c r="Z36" s="72">
-        <f>(F36+ L36) / 1000</f>
+      <c r="Z36" s="70">
+        <f t="shared" si="4"/>
         <v>-3.6836000783065663</v>
       </c>
-      <c r="AB36" s="75">
-        <f t="shared" si="14"/>
+      <c r="AB36" s="73">
+        <f t="shared" si="16"/>
         <v>0.36953691028721253</v>
       </c>
-      <c r="AC36" s="76">
-        <f t="shared" si="15"/>
+      <c r="AC36" s="74">
+        <f t="shared" si="17"/>
         <v>0.92921605234486804</v>
       </c>
     </row>
@@ -3747,89 +3747,89 @@
         <v>30</v>
       </c>
       <c r="E37" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>-3961.951</v>
       </c>
       <c r="F37" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>-3376.9</v>
       </c>
       <c r="G37">
         <v>2013.7</v>
       </c>
       <c r="H37" s="12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>815.99977129898718</v>
       </c>
       <c r="I37" s="13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>-364.17799999999988</v>
       </c>
       <c r="J37" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>-730.22599999999966</v>
       </c>
       <c r="K37" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-2.4773929467920039</v>
       </c>
       <c r="L37" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-4.9675069388160127</v>
       </c>
-      <c r="M37" s="79">
-        <f t="shared" si="5"/>
+      <c r="M37" s="77">
+        <f t="shared" si="7"/>
         <v>-0.89488505473176228</v>
       </c>
-      <c r="N37" s="79">
-        <f t="shared" si="6"/>
+      <c r="N37" s="77">
+        <f t="shared" si="8"/>
         <v>0.44629669371140412</v>
       </c>
       <c r="O37" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-4.0113768378970915</v>
       </c>
       <c r="P37" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-4.6377963762093248</v>
       </c>
       <c r="Q37" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-3.3460473358601757</v>
       </c>
       <c r="R37" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-3.033639650262193</v>
       </c>
       <c r="S37" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2.0137</v>
       </c>
       <c r="T37" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.69999999999999962</v>
       </c>
       <c r="V37" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.26370000000000005</v>
       </c>
       <c r="W37" s="46">
         <v>0</v>
       </c>
-      <c r="Y37" s="71">
-        <f>(E37+ K37) / 1000</f>
+      <c r="Y37" s="69">
+        <f t="shared" si="3"/>
         <v>-3.9644283929467918</v>
       </c>
-      <c r="Z37" s="72">
-        <f>(F37+ L37) / 1000</f>
+      <c r="Z37" s="70">
+        <f t="shared" si="4"/>
         <v>-3.381867506938816</v>
       </c>
-      <c r="AB37" s="75">
-        <f t="shared" si="14"/>
+      <c r="AB37" s="73">
+        <f t="shared" si="16"/>
         <v>0.44629669371140412</v>
       </c>
-      <c r="AC37" s="76">
-        <f t="shared" si="15"/>
+      <c r="AC37" s="74">
+        <f t="shared" si="17"/>
         <v>0.89488505473176228</v>
       </c>
     </row>
@@ -3838,89 +3838,89 @@
         <v>31</v>
       </c>
       <c r="E38" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>-4692.1769999999997</v>
       </c>
       <c r="F38" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>-3012.7220000000002</v>
       </c>
       <c r="G38">
         <v>2013.7</v>
       </c>
       <c r="H38" s="12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>816.00020856921412</v>
       </c>
       <c r="I38" s="13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>-424.24099999999999</v>
       </c>
       <c r="J38" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>-697.04800000000068</v>
       </c>
       <c r="K38" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-2.885981849354208</v>
       </c>
       <c r="L38" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-4.7418044840754527</v>
       </c>
-      <c r="M38" s="79">
-        <f t="shared" si="5"/>
+      <c r="M38" s="77">
+        <f t="shared" si="7"/>
         <v>-0.85422527185650377</v>
       </c>
-      <c r="N38" s="79">
-        <f t="shared" si="6"/>
+      <c r="N38" s="77">
+        <f t="shared" si="8"/>
         <v>0.51990305338753517</v>
       </c>
       <c r="O38" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-4.7388361730008697</v>
       </c>
       <c r="P38" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-5.3367938633004224</v>
       </c>
       <c r="Q38" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-2.9778257642015618</v>
       </c>
       <c r="R38" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-2.6138936268302873</v>
       </c>
       <c r="S38" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2.0137</v>
       </c>
       <c r="T38" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.7</v>
       </c>
       <c r="V38" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.26370000000000005</v>
       </c>
       <c r="W38" s="46">
         <v>0</v>
       </c>
-      <c r="Y38" s="71">
-        <f>(E38+ K38) / 1000</f>
+      <c r="Y38" s="69">
+        <f t="shared" si="3"/>
         <v>-4.6950629818493539</v>
       </c>
-      <c r="Z38" s="72">
-        <f>(F38+ L38) / 1000</f>
+      <c r="Z38" s="70">
+        <f t="shared" si="4"/>
         <v>-3.017463804484076</v>
       </c>
-      <c r="AB38" s="75">
-        <f t="shared" si="14"/>
+      <c r="AB38" s="73">
+        <f t="shared" si="16"/>
         <v>0.51990305338753517</v>
       </c>
-      <c r="AC38" s="76">
-        <f t="shared" si="15"/>
+      <c r="AC38" s="74">
+        <f t="shared" si="17"/>
         <v>0.85422527185650377</v>
       </c>
     </row>
@@ -3929,183 +3929,183 @@
         <v>32</v>
       </c>
       <c r="E39" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>-5389.2250000000004</v>
       </c>
       <c r="F39" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>-2588.4810000000002</v>
       </c>
       <c r="G39">
         <v>2013.7</v>
       </c>
       <c r="H39" s="12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>816.00010696567938</v>
       </c>
       <c r="I39" s="13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>-481.30200000000013</v>
       </c>
       <c r="J39" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>-658.94200000000001</v>
       </c>
       <c r="K39" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-3.2741507987478387</v>
       </c>
       <c r="L39" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-4.4825815717127657</v>
       </c>
-      <c r="M39" s="79">
-        <f t="shared" si="5"/>
+      <c r="M39" s="77">
+        <f t="shared" si="7"/>
         <v>-0.80752685492933984</v>
       </c>
-      <c r="N39" s="79">
-        <f t="shared" si="6"/>
+      <c r="N39" s="77">
+        <f t="shared" si="8"/>
         <v>0.58983080503473939</v>
       </c>
       <c r="O39" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-5.4327874499759838</v>
       </c>
       <c r="P39" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-5.9980562484265212</v>
       </c>
       <c r="Q39" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-2.5497882001904459</v>
       </c>
       <c r="R39" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-2.1369066366661285</v>
       </c>
       <c r="S39" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2.0137</v>
       </c>
       <c r="T39" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.6999999999999994</v>
       </c>
       <c r="V39" s="23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.26370000000000005</v>
       </c>
       <c r="W39" s="48">
         <v>0</v>
       </c>
-      <c r="Y39" s="71">
-        <f>(E39+ K39) / 1000</f>
+      <c r="Y39" s="69">
+        <f t="shared" si="3"/>
         <v>-5.3924991507987476</v>
       </c>
-      <c r="Z39" s="72">
-        <f>(F39+ L39) / 1000</f>
+      <c r="Z39" s="70">
+        <f t="shared" si="4"/>
         <v>-2.5929635815717127</v>
       </c>
-      <c r="AB39" s="75">
-        <f t="shared" si="14"/>
+      <c r="AB39" s="73">
+        <f t="shared" si="16"/>
         <v>0.58983080503473939</v>
       </c>
-      <c r="AC39" s="76">
-        <f t="shared" si="15"/>
+      <c r="AC39" s="74">
+        <f t="shared" si="17"/>
         <v>0.80752685492933984</v>
       </c>
     </row>
-    <row r="40" spans="1:29" s="65" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D40" s="65" t="s">
+    <row r="40" spans="1:29" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D40" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="E40" s="66">
-        <f t="shared" si="25"/>
+      <c r="E40" s="64">
+        <f t="shared" si="27"/>
         <v>-6048.1670000000004</v>
       </c>
-      <c r="F40" s="66">
-        <f t="shared" si="25"/>
+      <c r="F40" s="64">
+        <f t="shared" si="27"/>
         <v>-2107.1790000000001</v>
       </c>
-      <c r="G40" s="58">
+      <c r="G40" s="56">
         <v>2013.7</v>
       </c>
-      <c r="H40" s="59">
-        <f t="shared" ref="H40" si="26">SQRT(POWER(E40-E41, 2)+POWER(F40-F41, 2))</f>
+      <c r="H40" s="57">
+        <f t="shared" ref="H40" si="28">SQRT(POWER(E40-E41, 2)+POWER(F40-F41, 2))</f>
         <v>4214.3580000000002</v>
       </c>
-      <c r="I40" s="60">
-        <f t="shared" ref="I40" si="27">(F40-F41)</f>
+      <c r="I40" s="58">
+        <f t="shared" ref="I40" si="29">(F40-F41)</f>
         <v>-4214.3580000000002</v>
       </c>
-      <c r="J40" s="60">
-        <f t="shared" ref="J40" si="28">-(E40-E41)</f>
+      <c r="J40" s="58">
+        <f t="shared" ref="J40" si="30">-(E40-E41)</f>
         <v>0</v>
       </c>
-      <c r="K40" s="60">
-        <f t="shared" ref="K40" si="29">I40*($E$2/SQRT(POWER(I40,2)+POWER(J40,2)))</f>
+      <c r="K40" s="58">
+        <f t="shared" ref="K40" si="31">I40*($E$2/SQRT(POWER(I40,2)+POWER(J40,2)))</f>
         <v>-5.5510000000000002</v>
       </c>
-      <c r="L40" s="60">
-        <f t="shared" ref="L40" si="30">J40*($E$2/SQRT(POWER(I40,2)+POWER(J40,2)))</f>
+      <c r="L40" s="58">
+        <f t="shared" ref="L40" si="32">J40*($E$2/SQRT(POWER(I40,2)+POWER(J40,2)))</f>
         <v>0</v>
       </c>
-      <c r="M40" s="79">
-        <f t="shared" si="5"/>
+      <c r="M40" s="77">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="N40" s="79">
-        <f t="shared" si="6"/>
+      <c r="N40" s="77">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="O40" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-6.0426159999999998</v>
       </c>
       <c r="P40" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-6.0426159999999998</v>
       </c>
       <c r="Q40" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-0.35</v>
       </c>
       <c r="R40" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.35</v>
       </c>
-      <c r="S40" s="61">
-        <f t="shared" ref="S40" si="31">(G40)/1000</f>
+      <c r="S40" s="59">
+        <f t="shared" ref="S40" si="33">(G40)/1000</f>
         <v>2.0137</v>
       </c>
-      <c r="Y40" s="73">
-        <f>(E40+ K40) / 1000</f>
+      <c r="Y40" s="71">
+        <f t="shared" si="3"/>
         <v>-6.0537180000000008</v>
       </c>
-      <c r="Z40" s="74">
-        <f>(F40+ L40) / 1000</f>
+      <c r="Z40" s="72">
+        <f t="shared" si="4"/>
         <v>-2.1071789999999999</v>
       </c>
-      <c r="AB40" s="77">
-        <f t="shared" si="14"/>
+      <c r="AB40" s="75">
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="AC40" s="78">
-        <f t="shared" si="15"/>
+      <c r="AC40" s="76">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="D41" s="67">
+      <c r="D41" s="65">
         <v>1</v>
       </c>
-      <c r="E41" s="68">
+      <c r="E41" s="66">
         <v>-6048.1670000000004</v>
       </c>
-      <c r="F41" s="68">
+      <c r="F41" s="66">
         <v>2107.1790000000001</v>
       </c>
-      <c r="G41" s="67">
+      <c r="G41" s="65">
         <v>2013.7</v>
       </c>
       <c r="S41" t="s">
@@ -4185,7 +4185,7 @@
         <v>17</v>
       </c>
       <c r="C43">
-        <f t="shared" ref="C43:C87" si="32">B43-16</f>
+        <f t="shared" ref="C43:C87" si="34">B43-16</f>
         <v>1</v>
       </c>
       <c r="D43" s="8">
@@ -4209,52 +4209,52 @@
         <v>2217.1234184282876</v>
       </c>
       <c r="K43" s="20">
-        <f t="shared" ref="K43:K87" si="33">H43/1000</f>
+        <f t="shared" ref="K43:K87" si="35">H43/1000</f>
         <v>-5.8882318492012526</v>
       </c>
       <c r="L43" s="21">
-        <f t="shared" ref="L43:L87" si="34">I43/1000</f>
+        <f t="shared" ref="L43:L87" si="36">I43/1000</f>
         <v>2.2171234184282875</v>
       </c>
       <c r="M43" s="22">
-        <f t="shared" ref="M43:M87" si="35">G43/1000</f>
+        <f t="shared" ref="M43:M87" si="37">G43/1000</f>
         <v>0.99970000000000003</v>
       </c>
       <c r="O43" s="31">
-        <f t="shared" ref="O43:O87" si="36">M43-$E$4</f>
+        <f t="shared" ref="O43:O87" si="38">M43-$E$4</f>
         <v>-0.75029999999999997</v>
       </c>
       <c r="P43" s="10"/>
       <c r="Q43" s="31">
-        <f t="shared" ref="Q43:Q87" si="37">M43-$S$7</f>
+        <f t="shared" ref="Q43:Q87" si="39">M43-$S$7</f>
         <v>-1.014</v>
       </c>
       <c r="S43" s="20">
-        <f t="shared" ref="S43:S87" si="38">DEGREES( ATAN2(L43,K43))</f>
+        <f t="shared" ref="S43:S87" si="40">DEGREES( ATAN2(L43,K43))</f>
         <v>-69.366904439320834</v>
       </c>
       <c r="T43" s="21">
-        <f t="shared" ref="T43:T87" si="39">DEGREES(ATAN2((SQRT(POWER(K43,2)+POWER(L43,2))),M43))</f>
+        <f t="shared" ref="T43:T87" si="41">DEGREES(ATAN2((SQRT(POWER(K43,2)+POWER(L43,2))),M43))</f>
         <v>9.0282006154422199</v>
       </c>
       <c r="U43" s="21">
-        <f t="shared" ref="U43:U87" si="40">SQRT(POWER(K43,2)+POWER(L43,2)+POWER(M43,2))</f>
+        <f t="shared" ref="U43:U87" si="42">SQRT(POWER(K43,2)+POWER(L43,2)+POWER(M43,2))</f>
         <v>6.3707386269169088</v>
       </c>
       <c r="V43" s="21">
-        <f t="shared" ref="V43:V87" si="41">DEGREES(ATAN2((SQRT(POWER(K43,2)+POWER(L43,2))),O43))</f>
+        <f t="shared" ref="V43:V87" si="43">DEGREES(ATAN2((SQRT(POWER(K43,2)+POWER(L43,2))),O43))</f>
         <v>-6.8004195298063834</v>
       </c>
       <c r="W43" s="21">
-        <f t="shared" ref="W43:W87" si="42">SQRT(POWER(K43,2)+POWER(L43,2)+POWER(O43,2))</f>
+        <f t="shared" ref="W43:W87" si="44">SQRT(POWER(K43,2)+POWER(L43,2)+POWER(O43,2))</f>
         <v>6.3363917691767719</v>
       </c>
       <c r="X43" s="21">
-        <f t="shared" ref="X43:X87" si="43">DEGREES(ATAN2((SQRT(POWER(K43,2)+POWER(L43,2))),Q43))</f>
+        <f t="shared" ref="X43:X87" si="45">DEGREES(ATAN2((SQRT(POWER(K43,2)+POWER(L43,2))),Q43))</f>
         <v>-9.1551706518664009</v>
       </c>
       <c r="Y43" s="22">
-        <f t="shared" ref="Y43:Y87" si="44">SQRT(POWER(K43,2)+POWER(L43,2)+POWER(Q43,2))</f>
+        <f t="shared" ref="Y43:Y87" si="46">SQRT(POWER(K43,2)+POWER(L43,2)+POWER(Q43,2))</f>
         <v>6.3729982396428717</v>
       </c>
     </row>
@@ -4266,7 +4266,7 @@
         <v>20</v>
       </c>
       <c r="C44">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>4</v>
       </c>
       <c r="D44">
@@ -4290,52 +4290,52 @@
         <v>3115.7574930611841</v>
       </c>
       <c r="K44" s="20">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>-4.4731376070532081</v>
       </c>
       <c r="L44" s="21">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>3.1157574930611842</v>
       </c>
       <c r="M44" s="22">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0.99970000000000003</v>
       </c>
       <c r="O44" s="31">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>-0.75029999999999997</v>
       </c>
       <c r="P44" s="10"/>
       <c r="Q44" s="31">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>-1.014</v>
       </c>
       <c r="S44" s="20">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>-55.140915780735916</v>
       </c>
       <c r="T44" s="21">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>10.391817680761241</v>
       </c>
       <c r="U44" s="21">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>5.5422292353529201</v>
       </c>
       <c r="V44" s="21">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>-7.8367439186346948</v>
       </c>
       <c r="W44" s="21">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>5.5027134122358774</v>
       </c>
       <c r="X44" s="21">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>-10.537158792071354</v>
       </c>
       <c r="Y44" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>5.5448264902700624</v>
       </c>
     </row>
@@ -4347,7 +4347,7 @@
         <v>22</v>
       </c>
       <c r="C45">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>6</v>
       </c>
       <c r="D45">
@@ -4371,52 +4371,52 @@
         <v>3757.2768190097554</v>
       </c>
       <c r="K45" s="20">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>-2.9245763063212125</v>
       </c>
       <c r="L45" s="21">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>3.7572768190097552</v>
       </c>
       <c r="M45" s="22">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0.99970000000000003</v>
       </c>
       <c r="O45" s="31">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>-0.75029999999999997</v>
       </c>
       <c r="P45" s="10"/>
       <c r="Q45" s="31">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>-1.014</v>
       </c>
       <c r="S45" s="20">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>-37.896354740302939</v>
       </c>
       <c r="T45" s="21">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>11.857709493933276</v>
       </c>
       <c r="U45" s="21">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>4.8651490990681356</v>
       </c>
       <c r="V45" s="21">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>-8.9551418644697254</v>
       </c>
       <c r="W45" s="21">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>4.8200856585919185</v>
       </c>
       <c r="X45" s="21">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>-12.02242380905775</v>
       </c>
       <c r="Y45" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>4.8681076062638029</v>
       </c>
     </row>
@@ -4428,7 +4428,7 @@
         <v>25</v>
       </c>
       <c r="C46" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>9</v>
       </c>
       <c r="D46" s="6">
@@ -4453,54 +4453,54 @@
       </c>
       <c r="J46" s="6"/>
       <c r="K46" s="20">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>-1.2887804858284249</v>
       </c>
       <c r="L46" s="21">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>4.1226482779274418</v>
       </c>
       <c r="M46" s="22">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0.99970000000000003</v>
       </c>
       <c r="N46" s="6"/>
       <c r="O46" s="31">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>-0.75029999999999997</v>
       </c>
       <c r="P46" s="52"/>
       <c r="Q46" s="31">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>-1.014</v>
       </c>
       <c r="R46" s="6"/>
       <c r="S46" s="20">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>-17.359758769074336</v>
       </c>
       <c r="T46" s="21">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>13.031338827122806</v>
       </c>
       <c r="U46" s="21">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>4.4335746361316906</v>
       </c>
       <c r="V46" s="21">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>-9.8542271259887713</v>
       </c>
       <c r="W46" s="21">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>4.3840773321361759</v>
       </c>
       <c r="X46" s="21">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>-13.211249325077995</v>
       </c>
       <c r="Y46" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>4.4368209299170784</v>
       </c>
     </row>
@@ -4512,7 +4512,7 @@
         <v>27</v>
       </c>
       <c r="C47">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>11</v>
       </c>
       <c r="D47">
@@ -4536,52 +4536,52 @@
         <v>4200.7589084486972</v>
       </c>
       <c r="K47" s="20">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0.38542561297257855</v>
       </c>
       <c r="L47" s="21">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>4.2007589084486971</v>
       </c>
       <c r="M47" s="22">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0.99970000000000003</v>
       </c>
       <c r="O47" s="31">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>-0.75029999999999997</v>
       </c>
       <c r="P47" s="10"/>
       <c r="Q47" s="31">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>-1.014</v>
       </c>
       <c r="S47" s="20">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>5.2422918181164526</v>
       </c>
       <c r="T47" s="21">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>13.332304509064471</v>
       </c>
       <c r="U47" s="21">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>4.335242599906767</v>
       </c>
       <c r="V47" s="21">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>-10.085358760880604</v>
       </c>
       <c r="W47" s="21">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>4.2846094804598449</v>
       </c>
       <c r="X47" s="21">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>-13.516063363591293</v>
       </c>
       <c r="Y47" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>4.3385624704556669</v>
       </c>
     </row>
@@ -4593,7 +4593,7 @@
         <v>30</v>
       </c>
       <c r="C48">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>14</v>
       </c>
       <c r="D48">
@@ -4617,52 +4617,52 @@
         <v>3989.5232779274425</v>
       </c>
       <c r="K48" s="20">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>2.0480733034655594</v>
       </c>
       <c r="L48" s="21">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>3.9895232779274425</v>
       </c>
       <c r="M48" s="22">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0.99970000000000003</v>
       </c>
       <c r="O48" s="31">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>-0.75029999999999997</v>
       </c>
       <c r="P48" s="10"/>
       <c r="Q48" s="31">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>-1.014</v>
       </c>
       <c r="S48" s="20">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>27.174282601222639</v>
       </c>
       <c r="T48" s="21">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>12.56703773496713</v>
       </c>
       <c r="U48" s="21">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>4.5945946863127389</v>
       </c>
       <c r="V48" s="21">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>-9.4981243640186612</v>
       </c>
       <c r="W48" s="21">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>4.5468505948066138</v>
       </c>
       <c r="X48" s="21">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>-12.740971812728684</v>
       </c>
       <c r="Y48" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>4.5977272909007176</v>
       </c>
     </row>
@@ -4674,7 +4674,7 @@
         <v>32</v>
       </c>
       <c r="C49">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>16</v>
       </c>
       <c r="D49">
@@ -4698,52 +4698,52 @@
         <v>3495.1669216934333</v>
       </c>
       <c r="K49" s="20">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>3.6495417006109956</v>
       </c>
       <c r="L49" s="21">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>3.4951669216934333</v>
       </c>
       <c r="M49" s="22">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0.99970000000000003</v>
       </c>
       <c r="O49" s="31">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>-0.75029999999999997</v>
       </c>
       <c r="P49" s="10"/>
       <c r="Q49" s="31">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>-1.014</v>
       </c>
       <c r="S49" s="20">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>46.237789767953686</v>
       </c>
       <c r="T49" s="21">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>11.19050026689353</v>
       </c>
       <c r="U49" s="21">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>5.1511888457907027</v>
       </c>
       <c r="V49" s="21">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>-8.4454989406620768</v>
       </c>
       <c r="W49" s="21">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>5.1086491878967912</v>
       </c>
       <c r="X49" s="21">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>-11.346448197505596</v>
       </c>
       <c r="Y49" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>5.1539831620794558</v>
       </c>
     </row>
@@ -4755,7 +4755,7 @@
         <v>34</v>
       </c>
       <c r="C50" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>18</v>
       </c>
       <c r="D50" s="6">
@@ -4780,54 +4780,54 @@
       </c>
       <c r="J50" s="6"/>
       <c r="K50" s="20">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>5.1420310181506466</v>
       </c>
       <c r="L50" s="21">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>2.7324311955159244</v>
       </c>
       <c r="M50" s="22">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0.99970000000000003</v>
       </c>
       <c r="N50" s="6"/>
       <c r="O50" s="31">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>-0.75029999999999997</v>
       </c>
       <c r="P50" s="52"/>
       <c r="Q50" s="31">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>-1.014</v>
       </c>
       <c r="R50" s="6"/>
       <c r="S50" s="20">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>62.014206415626006</v>
       </c>
       <c r="T50" s="21">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>9.7417366465724218</v>
       </c>
       <c r="U50" s="21">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>5.9081353505020484</v>
       </c>
       <c r="V50" s="21">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>-7.3422412447084895</v>
       </c>
       <c r="W50" s="21">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>5.8710828064209721</v>
       </c>
       <c r="X50" s="21">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>-9.8783589719401519</v>
       </c>
       <c r="Y50" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>5.9105718191941428</v>
       </c>
     </row>
@@ -4839,7 +4839,7 @@
         <v>37</v>
       </c>
       <c r="C51" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>21</v>
       </c>
       <c r="D51" s="4">
@@ -4863,52 +4863,52 @@
         <v>1692.2964184282873</v>
       </c>
       <c r="K51" s="23">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>6.5175958492012525</v>
       </c>
       <c r="L51" s="24">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1.6922964184282874</v>
       </c>
       <c r="M51" s="25">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0.99970000000000003</v>
       </c>
       <c r="O51" s="32">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>-0.75029999999999997</v>
       </c>
       <c r="P51" s="26"/>
       <c r="Q51" s="32">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>-1.014</v>
       </c>
       <c r="S51" s="23">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>75.44454726885877</v>
       </c>
       <c r="T51" s="24">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>8.4445573083844039</v>
       </c>
       <c r="U51" s="24">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>6.8075195858220345</v>
       </c>
       <c r="V51" s="24">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>-6.3579207153954114</v>
       </c>
       <c r="W51" s="24">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>6.7753872886611139</v>
       </c>
       <c r="X51" s="24">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>-8.5635721303178229</v>
       </c>
       <c r="Y51" s="25">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>6.809634264874334</v>
       </c>
     </row>
@@ -4920,78 +4920,78 @@
         <v>17</v>
       </c>
       <c r="C52">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="D52" s="8">
         <v>10</v>
       </c>
       <c r="E52" s="3">
-        <f t="shared" ref="E52:F60" si="45">E43*-1</f>
+        <f t="shared" ref="E52:F60" si="47">E43*-1</f>
         <v>5891.5060000000003</v>
       </c>
       <c r="F52" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>-2221.6060000000002</v>
       </c>
       <c r="G52">
         <v>999.7</v>
       </c>
       <c r="H52" s="3">
-        <f t="shared" ref="H52:I60" si="46">H43*-1</f>
+        <f t="shared" ref="H52:I60" si="48">H43*-1</f>
         <v>5888.2318492012528</v>
       </c>
       <c r="I52" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>-2217.1234184282876</v>
       </c>
       <c r="K52" s="20">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>5.8882318492012526</v>
       </c>
       <c r="L52" s="21">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>-2.2171234184282875</v>
       </c>
       <c r="M52" s="22">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0.99970000000000003</v>
       </c>
       <c r="O52" s="31">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>-0.75029999999999997</v>
       </c>
       <c r="P52" s="10"/>
       <c r="Q52" s="31">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>-1.014</v>
       </c>
       <c r="S52" s="20">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>110.63309556067915</v>
       </c>
       <c r="T52" s="21">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>9.0282006154422199</v>
       </c>
       <c r="U52" s="21">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>6.3707386269169088</v>
       </c>
       <c r="V52" s="21">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>-6.8004195298063834</v>
       </c>
       <c r="W52" s="21">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>6.3363917691767719</v>
       </c>
       <c r="X52" s="21">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>-9.1551706518664009</v>
       </c>
       <c r="Y52" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>6.3729982396428717</v>
       </c>
     </row>
@@ -5003,78 +5003,78 @@
         <v>20</v>
       </c>
       <c r="C53">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>4</v>
       </c>
       <c r="D53">
         <v>11</v>
       </c>
       <c r="E53" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>4475.6149999999998</v>
       </c>
       <c r="F53" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>-3120.7249999999999</v>
       </c>
       <c r="G53">
         <v>999.7</v>
       </c>
       <c r="H53" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>4473.1376070532078</v>
       </c>
       <c r="I53" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>-3115.7574930611841</v>
       </c>
       <c r="K53" s="20">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>4.4731376070532081</v>
       </c>
       <c r="L53" s="21">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>-3.1157574930611842</v>
       </c>
       <c r="M53" s="22">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0.99970000000000003</v>
       </c>
       <c r="O53" s="31">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>-0.75029999999999997</v>
       </c>
       <c r="P53" s="10"/>
       <c r="Q53" s="31">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>-1.014</v>
       </c>
       <c r="S53" s="20">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>124.85908421926409</v>
       </c>
       <c r="T53" s="21">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>10.391817680761241</v>
       </c>
       <c r="U53" s="21">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>5.5422292353529201</v>
       </c>
       <c r="V53" s="21">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>-7.8367439186346948</v>
       </c>
       <c r="W53" s="21">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>5.5027134122358774</v>
       </c>
       <c r="X53" s="21">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>-10.537158792071354</v>
       </c>
       <c r="Y53" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>5.5448264902700624</v>
       </c>
     </row>
@@ -5086,78 +5086,78 @@
         <v>22</v>
       </c>
       <c r="C54">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>6</v>
       </c>
       <c r="D54">
         <v>12</v>
       </c>
       <c r="E54" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>2926.1869999999999</v>
       </c>
       <c r="F54" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>-3762.5889999999999</v>
       </c>
       <c r="G54">
         <v>999.7</v>
       </c>
       <c r="H54" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>2924.5763063212125</v>
       </c>
       <c r="I54" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>-3757.2768190097554</v>
       </c>
       <c r="K54" s="20">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>2.9245763063212125</v>
       </c>
       <c r="L54" s="21">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>-3.7572768190097552</v>
       </c>
       <c r="M54" s="22">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0.99970000000000003</v>
       </c>
       <c r="O54" s="31">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>-0.75029999999999997</v>
       </c>
       <c r="P54" s="10"/>
       <c r="Q54" s="31">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>-1.014</v>
       </c>
       <c r="S54" s="20">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>142.10364525969706</v>
       </c>
       <c r="T54" s="21">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>11.857709493933276</v>
       </c>
       <c r="U54" s="21">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>4.8651490990681356</v>
       </c>
       <c r="V54" s="21">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>-8.9551418644697254</v>
       </c>
       <c r="W54" s="21">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>4.8200856585919185</v>
       </c>
       <c r="X54" s="21">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>-12.02242380905775</v>
       </c>
       <c r="Y54" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>4.8681076062638029</v>
       </c>
     </row>
@@ -5169,78 +5169,78 @@
         <v>25</v>
       </c>
       <c r="C55">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>9</v>
       </c>
       <c r="D55">
         <v>13</v>
       </c>
       <c r="E55" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1289.479</v>
       </c>
       <c r="F55" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>-4128.0770000000002</v>
       </c>
       <c r="G55">
         <v>999.7</v>
       </c>
       <c r="H55" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1288.7804858284248</v>
       </c>
       <c r="I55" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>-4122.648277927442</v>
       </c>
       <c r="K55" s="20">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1.2887804858284249</v>
       </c>
       <c r="L55" s="21">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>-4.1226482779274418</v>
       </c>
       <c r="M55" s="22">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0.99970000000000003</v>
       </c>
       <c r="O55" s="31">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>-0.75029999999999997</v>
       </c>
       <c r="P55" s="10"/>
       <c r="Q55" s="31">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>-1.014</v>
       </c>
       <c r="S55" s="20">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>162.64024123092568</v>
       </c>
       <c r="T55" s="21">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>13.031338827122806</v>
       </c>
       <c r="U55" s="21">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>4.4335746361316906</v>
       </c>
       <c r="V55" s="21">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>-9.8542271259887713</v>
       </c>
       <c r="W55" s="21">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>4.3840773321361759</v>
       </c>
       <c r="X55" s="21">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>-13.211249325077995</v>
       </c>
       <c r="Y55" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>4.4368209299170784</v>
       </c>
     </row>
@@ -5252,78 +5252,78 @@
         <v>27</v>
       </c>
       <c r="C56">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>11</v>
       </c>
       <c r="D56">
         <v>14</v>
       </c>
       <c r="E56" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>-385.65899999999999</v>
       </c>
       <c r="F56" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>-4206.3050000000003</v>
       </c>
       <c r="G56">
         <v>999.7</v>
       </c>
       <c r="H56" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>-385.42561297257856</v>
       </c>
       <c r="I56" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>-4200.7589084486972</v>
       </c>
       <c r="K56" s="20">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>-0.38542561297257855</v>
       </c>
       <c r="L56" s="21">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>-4.2007589084486971</v>
       </c>
       <c r="M56" s="22">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0.99970000000000003</v>
       </c>
       <c r="O56" s="31">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>-0.75029999999999997</v>
       </c>
       <c r="P56" s="10"/>
       <c r="Q56" s="31">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>-1.014</v>
       </c>
       <c r="S56" s="20">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>-174.75770818188354</v>
       </c>
       <c r="T56" s="21">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>13.332304509064471</v>
       </c>
       <c r="U56" s="21">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>4.335242599906767</v>
       </c>
       <c r="V56" s="21">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>-10.085358760880604</v>
       </c>
       <c r="W56" s="21">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>4.2846094804598449</v>
       </c>
       <c r="X56" s="21">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>-13.516063363591293</v>
       </c>
       <c r="Y56" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>4.3385624704556669</v>
       </c>
     </row>
@@ -5335,81 +5335,81 @@
         <v>30</v>
       </c>
       <c r="C57" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>14</v>
       </c>
       <c r="D57" s="6">
         <v>15</v>
       </c>
       <c r="E57" s="51">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>-2049.232</v>
       </c>
       <c r="F57" s="51">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>-3994.9520000000002</v>
       </c>
       <c r="G57" s="6">
         <v>999.7</v>
       </c>
       <c r="H57" s="51">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>-2048.0733034655595</v>
       </c>
       <c r="I57" s="51">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>-3989.5232779274425</v>
       </c>
       <c r="J57" s="6"/>
       <c r="K57" s="20">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>-2.0480733034655594</v>
       </c>
       <c r="L57" s="21">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>-3.9895232779274425</v>
       </c>
       <c r="M57" s="22">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0.99970000000000003</v>
       </c>
       <c r="N57" s="6"/>
       <c r="O57" s="31">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>-0.75029999999999997</v>
       </c>
       <c r="P57" s="52"/>
       <c r="Q57" s="31">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>-1.014</v>
       </c>
       <c r="R57" s="6"/>
       <c r="S57" s="20">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>-152.82571739877736</v>
       </c>
       <c r="T57" s="21">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>12.56703773496713</v>
       </c>
       <c r="U57" s="21">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>4.5945946863127389</v>
       </c>
       <c r="V57" s="21">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>-9.4981243640186612</v>
       </c>
       <c r="W57" s="21">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>4.5468505948066138</v>
       </c>
       <c r="X57" s="21">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>-12.740971812728684</v>
       </c>
       <c r="Y57" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>4.5977272909007176</v>
       </c>
     </row>
@@ -5421,78 +5421,78 @@
         <v>32</v>
       </c>
       <c r="C58">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>16</v>
       </c>
       <c r="D58">
         <v>16</v>
       </c>
       <c r="E58" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>-3651.5929999999998</v>
       </c>
       <c r="F58" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>-3500.3249999999998</v>
       </c>
       <c r="G58">
         <v>999.7</v>
       </c>
       <c r="H58" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>-3649.5417006109956</v>
       </c>
       <c r="I58" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>-3495.1669216934333</v>
       </c>
       <c r="K58" s="20">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>-3.6495417006109956</v>
       </c>
       <c r="L58" s="21">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>-3.4951669216934333</v>
       </c>
       <c r="M58" s="22">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0.99970000000000003</v>
       </c>
       <c r="O58" s="31">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>-0.75029999999999997</v>
       </c>
       <c r="P58" s="10"/>
       <c r="Q58" s="31">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>-1.014</v>
       </c>
       <c r="S58" s="20">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>-133.7622102320463</v>
       </c>
       <c r="T58" s="21">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>11.19050026689353</v>
       </c>
       <c r="U58" s="21">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>5.1511888457907027</v>
       </c>
       <c r="V58" s="21">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>-8.4454989406620768</v>
       </c>
       <c r="W58" s="21">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>5.1086491878967912</v>
       </c>
       <c r="X58" s="21">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>-11.346448197505596</v>
       </c>
       <c r="Y58" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>5.1539831620794558</v>
       </c>
     </row>
@@ -5504,81 +5504,81 @@
         <v>34</v>
       </c>
       <c r="C59" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>18</v>
       </c>
       <c r="D59" s="6">
         <v>17</v>
       </c>
       <c r="E59" s="51">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>-5144.9170000000004</v>
       </c>
       <c r="F59" s="51">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>-2737.1729999999998</v>
       </c>
       <c r="G59" s="6">
         <v>999.7</v>
       </c>
       <c r="H59" s="51">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>-5142.0310181506466</v>
       </c>
       <c r="I59" s="51">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>-2732.4311955159242</v>
       </c>
       <c r="J59" s="6"/>
       <c r="K59" s="20">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>-5.1420310181506466</v>
       </c>
       <c r="L59" s="21">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>-2.7324311955159244</v>
       </c>
       <c r="M59" s="22">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0.99970000000000003</v>
       </c>
       <c r="N59" s="6"/>
       <c r="O59" s="31">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>-0.75029999999999997</v>
       </c>
       <c r="P59" s="52"/>
       <c r="Q59" s="31">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>-1.014</v>
       </c>
       <c r="R59" s="6"/>
       <c r="S59" s="20">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>-117.98579358437399</v>
       </c>
       <c r="T59" s="21">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>9.7417366465724218</v>
       </c>
       <c r="U59" s="21">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>5.9081353505020484</v>
       </c>
       <c r="V59" s="21">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>-7.3422412447084895</v>
       </c>
       <c r="W59" s="21">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>5.8710828064209721</v>
       </c>
       <c r="X59" s="21">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>-9.8783589719401519</v>
       </c>
       <c r="Y59" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>5.9105718191941428</v>
       </c>
     </row>
@@ -5590,78 +5590,78 @@
         <v>37</v>
       </c>
       <c r="C60" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>21</v>
       </c>
       <c r="D60" s="4">
         <v>18</v>
       </c>
       <c r="E60" s="49">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>-6520.87</v>
       </c>
       <c r="F60" s="49">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>-1696.779</v>
       </c>
       <c r="G60" s="4">
         <v>999.7</v>
       </c>
       <c r="H60" s="49">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>-6517.5958492012523</v>
       </c>
       <c r="I60" s="49">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>-1692.2964184282873</v>
       </c>
       <c r="K60" s="23">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>-6.5175958492012525</v>
       </c>
       <c r="L60" s="24">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>-1.6922964184282874</v>
       </c>
       <c r="M60" s="25">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0.99970000000000003</v>
       </c>
       <c r="O60" s="32">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>-0.75029999999999997</v>
       </c>
       <c r="P60" s="26"/>
       <c r="Q60" s="32">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>-1.014</v>
       </c>
       <c r="S60" s="23">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>-104.55545273114123</v>
       </c>
       <c r="T60" s="24">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>8.4445573083844039</v>
       </c>
       <c r="U60" s="24">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>6.8075195858220345</v>
       </c>
       <c r="V60" s="24">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>-6.3579207153954114</v>
       </c>
       <c r="W60" s="24">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>6.7753872886611139</v>
       </c>
       <c r="X60" s="24">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>-8.5635721303178229</v>
       </c>
       <c r="Y60" s="25">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>6.809634264874334</v>
       </c>
     </row>
@@ -5673,7 +5673,7 @@
         <v>18</v>
       </c>
       <c r="C61">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>2</v>
       </c>
       <c r="D61" s="8">
@@ -5695,52 +5695,52 @@
         <v>2217.1234184282876</v>
       </c>
       <c r="K61" s="20">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>-5.8882318492012526</v>
       </c>
       <c r="L61" s="21">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>2.2171234184282875</v>
       </c>
       <c r="M61" s="22">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1.6907000000000001</v>
       </c>
       <c r="O61" s="31">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>-5.9299999999999908E-2</v>
       </c>
       <c r="P61" s="10"/>
       <c r="Q61" s="31">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>-0.32299999999999995</v>
       </c>
       <c r="S61" s="20">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>-69.366904439320834</v>
       </c>
       <c r="T61" s="21">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>15.040892032043063</v>
       </c>
       <c r="U61" s="21">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>6.5150116694055997</v>
       </c>
       <c r="V61" s="21">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>-0.53999366131212634</v>
       </c>
       <c r="W61" s="21">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>6.292092422437161</v>
       </c>
       <c r="X61" s="21">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>-2.9387880520458696</v>
       </c>
       <c r="Y61" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>6.3000983772073864</v>
       </c>
     </row>
@@ -5752,7 +5752,7 @@
         <v>21</v>
       </c>
       <c r="C62">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>5</v>
       </c>
       <c r="D62">
@@ -5774,52 +5774,52 @@
         <v>3115.7574930611841</v>
       </c>
       <c r="K62" s="20">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>-4.4731376070532081</v>
       </c>
       <c r="L62" s="21">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>3.1157574930611842</v>
       </c>
       <c r="M62" s="22">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1.6907000000000001</v>
       </c>
       <c r="O62" s="31">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>-5.9299999999999908E-2</v>
       </c>
       <c r="P62" s="10"/>
       <c r="Q62" s="31">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>-0.32299999999999995</v>
       </c>
       <c r="S62" s="20">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>-55.140915780735916</v>
       </c>
       <c r="T62" s="21">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>17.231014707876284</v>
       </c>
       <c r="U62" s="21">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>5.7074837973664554</v>
       </c>
       <c r="V62" s="21">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>-0.62324443544919728</v>
       </c>
       <c r="W62" s="21">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>5.4516439077768659</v>
       </c>
       <c r="X62" s="21">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>-3.3909072024217428</v>
       </c>
       <c r="Y62" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>5.4608821455146437</v>
       </c>
     </row>
@@ -5831,7 +5831,7 @@
         <v>23</v>
       </c>
       <c r="C63">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>7</v>
       </c>
       <c r="D63">
@@ -5853,52 +5853,52 @@
         <v>3757.2768190097554</v>
       </c>
       <c r="K63" s="20">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>-2.9245763063212125</v>
       </c>
       <c r="L63" s="21">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>3.7572768190097552</v>
       </c>
       <c r="M63" s="22">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1.6907000000000001</v>
       </c>
       <c r="O63" s="31">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>-5.9299999999999908E-2</v>
       </c>
       <c r="P63" s="10"/>
       <c r="Q63" s="31">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>-0.32299999999999995</v>
       </c>
       <c r="S63" s="20">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>-37.896354740302939</v>
       </c>
       <c r="T63" s="21">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>19.549429629941635</v>
       </c>
       <c r="U63" s="21">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>5.0525975652295418</v>
       </c>
       <c r="V63" s="21">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>-0.71355338645747979</v>
       </c>
       <c r="W63" s="21">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>4.761700552970912</v>
       </c>
       <c r="X63" s="21">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>-3.8808947854382496</v>
       </c>
       <c r="Y63" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>4.7722745799213495</v>
       </c>
     </row>
@@ -5910,7 +5910,7 @@
         <v>26</v>
       </c>
       <c r="C64">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>10</v>
       </c>
       <c r="D64">
@@ -5932,52 +5932,52 @@
         <v>4122.648277927442</v>
       </c>
       <c r="K64" s="20">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>-1.2887804858284249</v>
       </c>
       <c r="L64" s="21">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>4.1226482779274418</v>
       </c>
       <c r="M64" s="22">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1.6907000000000001</v>
       </c>
       <c r="O64" s="31">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>-5.9299999999999908E-2</v>
       </c>
       <c r="P64" s="10"/>
       <c r="Q64" s="31">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>-0.32299999999999995</v>
       </c>
       <c r="S64" s="20">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>-17.359758769074336</v>
       </c>
       <c r="T64" s="21">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>21.376390611636417</v>
       </c>
       <c r="U64" s="21">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>4.6384965726138301</v>
       </c>
       <c r="V64" s="21">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>-0.78655119633682291</v>
       </c>
       <c r="W64" s="21">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>4.3198032888258062</v>
       </c>
       <c r="X64" s="21">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>-4.2765598380915124</v>
       </c>
       <c r="Y64" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>4.3314562175035602</v>
       </c>
     </row>
@@ -5989,7 +5989,7 @@
         <v>28</v>
       </c>
       <c r="C65">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>12</v>
       </c>
       <c r="D65">
@@ -6011,52 +6011,52 @@
         <v>4200.7589084486972</v>
       </c>
       <c r="K65" s="20">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0.38542561297257855</v>
       </c>
       <c r="L65" s="21">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>4.2007589084486971</v>
       </c>
       <c r="M65" s="22">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1.6907000000000001</v>
       </c>
       <c r="O65" s="31">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>-5.9299999999999908E-2</v>
       </c>
       <c r="P65" s="10"/>
       <c r="Q65" s="31">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>-0.32299999999999995</v>
       </c>
       <c r="S65" s="20">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>5.2422918181164526</v>
       </c>
       <c r="T65" s="21">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>21.840490063843184</v>
       </c>
       <c r="U65" s="21">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>4.5446006205217175</v>
       </c>
       <c r="V65" s="21">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>-0.80537955314906851</v>
       </c>
       <c r="W65" s="21">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>4.2188203090492467</v>
       </c>
       <c r="X65" s="21">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>-4.3785513511579257</v>
       </c>
       <c r="Y65" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>4.2307513883524734</v>
       </c>
     </row>
@@ -6068,7 +6068,7 @@
         <v>31</v>
       </c>
       <c r="C66">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>15</v>
       </c>
       <c r="D66">
@@ -6090,52 +6090,52 @@
         <v>3989.5232779274425</v>
       </c>
       <c r="K66" s="20">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>2.0480733034655594</v>
       </c>
       <c r="L66" s="21">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>3.9895232779274425</v>
       </c>
       <c r="M66" s="22">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1.6907000000000001</v>
       </c>
       <c r="O66" s="31">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>-5.9299999999999908E-2</v>
       </c>
       <c r="P66" s="10"/>
       <c r="Q66" s="31">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>-0.32299999999999995</v>
       </c>
       <c r="S66" s="20">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>27.174282601222639</v>
       </c>
       <c r="T66" s="21">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>20.656854314257824</v>
       </c>
       <c r="U66" s="21">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>4.7926367201670166</v>
       </c>
       <c r="V66" s="21">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>-0.75759353337381263</v>
       </c>
       <c r="W66" s="21">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>4.4849098911230376</v>
       </c>
       <c r="X66" s="21">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>-4.1196477900941169</v>
       </c>
       <c r="Y66" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>4.496134922518813</v>
       </c>
     </row>
@@ -6147,7 +6147,7 @@
         <v>33</v>
       </c>
       <c r="C67">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>17</v>
       </c>
       <c r="D67">
@@ -6169,52 +6169,52 @@
         <v>3495.1669216934333</v>
       </c>
       <c r="K67" s="20">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>3.6495417006109956</v>
       </c>
       <c r="L67" s="21">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>3.4951669216934333</v>
       </c>
       <c r="M67" s="22">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1.6907000000000001</v>
       </c>
       <c r="O67" s="31">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>-5.9299999999999908E-2</v>
       </c>
       <c r="P67" s="10"/>
       <c r="Q67" s="31">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>-0.32299999999999995</v>
       </c>
       <c r="S67" s="20">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>46.237789767953686</v>
       </c>
       <c r="T67" s="21">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>18.499039879728343</v>
       </c>
       <c r="U67" s="21">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>5.3285845142024861</v>
       </c>
       <c r="V67" s="21">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>-0.67233622934833437</v>
       </c>
       <c r="W67" s="21">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>5.0535990071431813</v>
       </c>
       <c r="X67" s="21">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>-3.6573275784143031</v>
       </c>
       <c r="Y67" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>5.063563511500428</v>
       </c>
     </row>
@@ -6226,7 +6226,7 @@
         <v>35</v>
       </c>
       <c r="C68">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>19</v>
       </c>
       <c r="D68">
@@ -6248,52 +6248,52 @@
         <v>2732.4311955159242</v>
       </c>
       <c r="K68" s="20">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>5.1420310181506466</v>
       </c>
       <c r="L68" s="21">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>2.7324311955159244</v>
       </c>
       <c r="M68" s="22">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1.6907000000000001</v>
       </c>
       <c r="O68" s="31">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>-5.9299999999999908E-2</v>
       </c>
       <c r="P68" s="10"/>
       <c r="Q68" s="31">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>-0.32299999999999995</v>
       </c>
       <c r="S68" s="20">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>62.014206415626006</v>
       </c>
       <c r="T68" s="21">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>16.19073271223106</v>
       </c>
       <c r="U68" s="21">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>6.0634255763431248</v>
       </c>
       <c r="V68" s="21">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>-0.58347168653298509</v>
       </c>
       <c r="W68" s="21">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>5.8232447758832846</v>
       </c>
       <c r="X68" s="21">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>-3.1749565589924145</v>
       </c>
       <c r="Y68" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>5.8318943946072928</v>
       </c>
     </row>
@@ -6305,7 +6305,7 @@
         <v>38</v>
       </c>
       <c r="C69" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>22</v>
       </c>
       <c r="D69" s="4">
@@ -6327,52 +6327,52 @@
         <v>1692.2964184282873</v>
       </c>
       <c r="K69" s="23">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>6.5175958492012525</v>
       </c>
       <c r="L69" s="24">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1.6922964184282874</v>
       </c>
       <c r="M69" s="25">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1.6907000000000001</v>
       </c>
       <c r="O69" s="32">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>-5.9299999999999908E-2</v>
       </c>
       <c r="P69" s="26"/>
       <c r="Q69" s="32">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>-0.32299999999999995</v>
       </c>
       <c r="S69" s="23">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>75.44454726885877</v>
       </c>
       <c r="T69" s="24">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>14.094458060134764</v>
       </c>
       <c r="U69" s="24">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>6.9427220390384781</v>
       </c>
       <c r="V69" s="24">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>-0.50455828688097459</v>
       </c>
       <c r="W69" s="24">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>6.7339764858032147</v>
       </c>
       <c r="X69" s="24">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>-2.7462346530811899</v>
       </c>
       <c r="Y69" s="25">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>6.7414576926174208</v>
       </c>
     </row>
@@ -6384,18 +6384,18 @@
         <v>18</v>
       </c>
       <c r="C70">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>2</v>
       </c>
       <c r="D70" s="8">
         <v>28</v>
       </c>
       <c r="E70" s="3">
-        <f t="shared" ref="E70:F78" si="47">E61*-1</f>
+        <f t="shared" ref="E70:F78" si="49">E61*-1</f>
         <v>5891.5060000000003</v>
       </c>
       <c r="F70" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>-2221.6060000000002</v>
       </c>
       <c r="G70">
@@ -6408,52 +6408,52 @@
         <v>-2217.1234184282876</v>
       </c>
       <c r="K70" s="20">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>5.8882318492012526</v>
       </c>
       <c r="L70" s="21">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>-2.2171234184282875</v>
       </c>
       <c r="M70" s="22">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1.6907000000000001</v>
       </c>
       <c r="O70" s="31">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>-5.9299999999999908E-2</v>
       </c>
       <c r="P70" s="10"/>
       <c r="Q70" s="31">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>-0.32299999999999995</v>
       </c>
       <c r="S70" s="20">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>110.63309556067915</v>
       </c>
       <c r="T70" s="21">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>15.040892032043063</v>
       </c>
       <c r="U70" s="21">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>6.5150116694055997</v>
       </c>
       <c r="V70" s="21">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>-0.53999366131212634</v>
       </c>
       <c r="W70" s="21">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>6.292092422437161</v>
       </c>
       <c r="X70" s="21">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>-2.9387880520458696</v>
       </c>
       <c r="Y70" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>6.3000983772073864</v>
       </c>
     </row>
@@ -6465,18 +6465,18 @@
         <v>21</v>
       </c>
       <c r="C71" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>5</v>
       </c>
       <c r="D71" s="6">
         <v>29</v>
       </c>
       <c r="E71" s="51">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>4475.6149999999998</v>
       </c>
       <c r="F71" s="51">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>-3120.7249999999999</v>
       </c>
       <c r="G71" s="6">
@@ -6490,54 +6490,54 @@
       </c>
       <c r="J71" s="6"/>
       <c r="K71" s="20">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>4.4731376070532081</v>
       </c>
       <c r="L71" s="21">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>-3.1157574930611842</v>
       </c>
       <c r="M71" s="22">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1.6907000000000001</v>
       </c>
       <c r="N71" s="6"/>
       <c r="O71" s="31">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>-5.9299999999999908E-2</v>
       </c>
       <c r="P71" s="52"/>
       <c r="Q71" s="31">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>-0.32299999999999995</v>
       </c>
       <c r="R71" s="6"/>
       <c r="S71" s="20">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>124.85908421926409</v>
       </c>
       <c r="T71" s="21">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>17.231014707876284</v>
       </c>
       <c r="U71" s="21">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>5.7074837973664554</v>
       </c>
       <c r="V71" s="21">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>-0.62324443544919728</v>
       </c>
       <c r="W71" s="21">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>5.4516439077768659</v>
       </c>
       <c r="X71" s="21">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>-3.3909072024217428</v>
       </c>
       <c r="Y71" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>5.4608821455146437</v>
       </c>
     </row>
@@ -6549,18 +6549,18 @@
         <v>23</v>
       </c>
       <c r="C72">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>7</v>
       </c>
       <c r="D72">
         <v>30</v>
       </c>
       <c r="E72" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>2926.1869999999999</v>
       </c>
       <c r="F72" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>-3762.5889999999999</v>
       </c>
       <c r="G72">
@@ -6573,52 +6573,52 @@
         <v>-3757.2768190097554</v>
       </c>
       <c r="K72" s="20">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>2.9245763063212125</v>
       </c>
       <c r="L72" s="21">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>-3.7572768190097552</v>
       </c>
       <c r="M72" s="22">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1.6907000000000001</v>
       </c>
       <c r="O72" s="31">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>-5.9299999999999908E-2</v>
       </c>
       <c r="P72" s="10"/>
       <c r="Q72" s="31">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>-0.32299999999999995</v>
       </c>
       <c r="S72" s="20">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>142.10364525969706</v>
       </c>
       <c r="T72" s="21">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>19.549429629941635</v>
       </c>
       <c r="U72" s="21">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>5.0525975652295418</v>
       </c>
       <c r="V72" s="21">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>-0.71355338645747979</v>
       </c>
       <c r="W72" s="21">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>4.761700552970912</v>
       </c>
       <c r="X72" s="21">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>-3.8808947854382496</v>
       </c>
       <c r="Y72" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>4.7722745799213495</v>
       </c>
     </row>
@@ -6630,18 +6630,18 @@
         <v>26</v>
       </c>
       <c r="C73">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>10</v>
       </c>
       <c r="D73">
         <v>31</v>
       </c>
       <c r="E73" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1289.479</v>
       </c>
       <c r="F73" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>-4128.0770000000002</v>
       </c>
       <c r="G73">
@@ -6654,52 +6654,52 @@
         <v>-4122.648277927442</v>
       </c>
       <c r="K73" s="20">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1.2887804858284249</v>
       </c>
       <c r="L73" s="21">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>-4.1226482779274418</v>
       </c>
       <c r="M73" s="22">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1.6907000000000001</v>
       </c>
       <c r="O73" s="31">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>-5.9299999999999908E-2</v>
       </c>
       <c r="P73" s="10"/>
       <c r="Q73" s="31">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>-0.32299999999999995</v>
       </c>
       <c r="S73" s="20">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>162.64024123092568</v>
       </c>
       <c r="T73" s="21">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>21.376390611636417</v>
       </c>
       <c r="U73" s="21">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>4.6384965726138301</v>
       </c>
       <c r="V73" s="21">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>-0.78655119633682291</v>
       </c>
       <c r="W73" s="21">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>4.3198032888258062</v>
       </c>
       <c r="X73" s="21">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>-4.2765598380915124</v>
       </c>
       <c r="Y73" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>4.3314562175035602</v>
       </c>
     </row>
@@ -6711,18 +6711,18 @@
         <v>28</v>
       </c>
       <c r="C74">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>12</v>
       </c>
       <c r="D74">
         <v>32</v>
       </c>
       <c r="E74" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>-385.65899999999999</v>
       </c>
       <c r="F74" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>-4206.3050000000003</v>
       </c>
       <c r="G74">
@@ -6735,52 +6735,52 @@
         <v>-4200.7589084486972</v>
       </c>
       <c r="K74" s="20">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>-0.38542561297257855</v>
       </c>
       <c r="L74" s="21">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>-4.2007589084486971</v>
       </c>
       <c r="M74" s="22">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1.6907000000000001</v>
       </c>
       <c r="O74" s="31">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>-5.9299999999999908E-2</v>
       </c>
       <c r="P74" s="10"/>
       <c r="Q74" s="31">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>-0.32299999999999995</v>
       </c>
       <c r="S74" s="20">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>-174.75770818188354</v>
       </c>
       <c r="T74" s="21">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>21.840490063843184</v>
       </c>
       <c r="U74" s="21">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>4.5446006205217175</v>
       </c>
       <c r="V74" s="21">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>-0.80537955314906851</v>
       </c>
       <c r="W74" s="21">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>4.2188203090492467</v>
       </c>
       <c r="X74" s="21">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>-4.3785513511579257</v>
       </c>
       <c r="Y74" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>4.2307513883524734</v>
       </c>
     </row>
@@ -6792,18 +6792,18 @@
         <v>31</v>
       </c>
       <c r="C75">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>15</v>
       </c>
       <c r="D75">
         <v>33</v>
       </c>
       <c r="E75" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>-2049.232</v>
       </c>
       <c r="F75" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>-3994.9520000000002</v>
       </c>
       <c r="G75">
@@ -6816,52 +6816,52 @@
         <v>-3989.5232779274425</v>
       </c>
       <c r="K75" s="20">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>-2.0480733034655594</v>
       </c>
       <c r="L75" s="21">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>-3.9895232779274425</v>
       </c>
       <c r="M75" s="22">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1.6907000000000001</v>
       </c>
       <c r="O75" s="31">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>-5.9299999999999908E-2</v>
       </c>
       <c r="P75" s="10"/>
       <c r="Q75" s="31">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>-0.32299999999999995</v>
       </c>
       <c r="S75" s="20">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>-152.82571739877736</v>
       </c>
       <c r="T75" s="21">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>20.656854314257824</v>
       </c>
       <c r="U75" s="21">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>4.7926367201670166</v>
       </c>
       <c r="V75" s="21">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>-0.75759353337381263</v>
       </c>
       <c r="W75" s="21">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>4.4849098911230376</v>
       </c>
       <c r="X75" s="21">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>-4.1196477900941169</v>
       </c>
       <c r="Y75" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>4.496134922518813</v>
       </c>
     </row>
@@ -6873,18 +6873,18 @@
         <v>33</v>
       </c>
       <c r="C76">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>17</v>
       </c>
       <c r="D76">
         <v>34</v>
       </c>
       <c r="E76" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>-3651.5929999999998</v>
       </c>
       <c r="F76" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>-3500.3249999999998</v>
       </c>
       <c r="G76">
@@ -6897,52 +6897,52 @@
         <v>-3495.1669216934333</v>
       </c>
       <c r="K76" s="20">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>-3.6495417006109956</v>
       </c>
       <c r="L76" s="21">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>-3.4951669216934333</v>
       </c>
       <c r="M76" s="22">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1.6907000000000001</v>
       </c>
       <c r="O76" s="31">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>-5.9299999999999908E-2</v>
       </c>
       <c r="P76" s="10"/>
       <c r="Q76" s="31">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>-0.32299999999999995</v>
       </c>
       <c r="S76" s="20">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>-133.7622102320463</v>
       </c>
       <c r="T76" s="21">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>18.499039879728343</v>
       </c>
       <c r="U76" s="21">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>5.3285845142024861</v>
       </c>
       <c r="V76" s="21">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>-0.67233622934833437</v>
       </c>
       <c r="W76" s="21">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>5.0535990071431813</v>
       </c>
       <c r="X76" s="21">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>-3.6573275784143031</v>
       </c>
       <c r="Y76" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>5.063563511500428</v>
       </c>
     </row>
@@ -6954,18 +6954,18 @@
         <v>35</v>
       </c>
       <c r="C77">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>19</v>
       </c>
       <c r="D77">
         <v>35</v>
       </c>
       <c r="E77" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>-5144.9170000000004</v>
       </c>
       <c r="F77" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>-2737.1729999999998</v>
       </c>
       <c r="G77">
@@ -6978,52 +6978,52 @@
         <v>-2732.4311955159242</v>
       </c>
       <c r="K77" s="20">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>-5.1420310181506466</v>
       </c>
       <c r="L77" s="21">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>-2.7324311955159244</v>
       </c>
       <c r="M77" s="22">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1.6907000000000001</v>
       </c>
       <c r="O77" s="31">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>-5.9299999999999908E-2</v>
       </c>
       <c r="P77" s="10"/>
       <c r="Q77" s="31">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>-0.32299999999999995</v>
       </c>
       <c r="S77" s="20">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>-117.98579358437399</v>
       </c>
       <c r="T77" s="21">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>16.19073271223106</v>
       </c>
       <c r="U77" s="21">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>6.0634255763431248</v>
       </c>
       <c r="V77" s="21">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>-0.58347168653298509</v>
       </c>
       <c r="W77" s="21">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>5.8232447758832846</v>
       </c>
       <c r="X77" s="21">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>-3.1749565589924145</v>
       </c>
       <c r="Y77" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>5.8318943946072928</v>
       </c>
     </row>
@@ -7035,18 +7035,18 @@
         <v>38</v>
       </c>
       <c r="C78" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>22</v>
       </c>
       <c r="D78" s="4">
         <v>36</v>
       </c>
       <c r="E78" s="49">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>-6520.87</v>
       </c>
       <c r="F78" s="49">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>-1696.779</v>
       </c>
       <c r="G78" s="4">
@@ -7059,52 +7059,52 @@
         <v>-1692.2964184282873</v>
       </c>
       <c r="K78" s="23">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>-6.5175958492012525</v>
       </c>
       <c r="L78" s="24">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>-1.6922964184282874</v>
       </c>
       <c r="M78" s="25">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1.6907000000000001</v>
       </c>
       <c r="O78" s="32">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>-5.9299999999999908E-2</v>
       </c>
       <c r="P78" s="26"/>
       <c r="Q78" s="32">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>-0.32299999999999995</v>
       </c>
       <c r="S78" s="23">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>-104.55545273114123</v>
       </c>
       <c r="T78" s="24">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>14.094458060134764</v>
       </c>
       <c r="U78" s="24">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>6.9427220390384781</v>
       </c>
       <c r="V78" s="24">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>-0.50455828688097459</v>
       </c>
       <c r="W78" s="24">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>6.7339764858032147</v>
       </c>
       <c r="X78" s="24">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>-2.7462346530811899</v>
       </c>
       <c r="Y78" s="25">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>6.7414576926174208</v>
       </c>
     </row>
@@ -7116,7 +7116,7 @@
         <v>19</v>
       </c>
       <c r="C79">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>3</v>
       </c>
       <c r="D79">
@@ -7140,52 +7140,52 @@
         <v>2644.5681955159243</v>
       </c>
       <c r="K79" s="20">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>-5.2863950181506461</v>
       </c>
       <c r="L79" s="21">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>2.6445681955159244</v>
       </c>
       <c r="M79" s="22">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>3.06203</v>
       </c>
       <c r="O79" s="31">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1.31203</v>
       </c>
       <c r="P79" s="10"/>
       <c r="Q79" s="31">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1.04833</v>
       </c>
       <c r="S79" s="20">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>-63.423065276213393</v>
       </c>
       <c r="T79" s="21">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>27.385235002966883</v>
       </c>
       <c r="U79" s="21">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>6.6570069062276271</v>
       </c>
       <c r="V79" s="21">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>12.514751523165046</v>
       </c>
       <c r="W79" s="21">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>6.0548440070378629</v>
       </c>
       <c r="X79" s="21">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>10.056999542825952</v>
       </c>
       <c r="Y79" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>6.0032248848066923</v>
       </c>
     </row>
@@ -7197,7 +7197,7 @@
         <v>24</v>
       </c>
       <c r="C80">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>8</v>
       </c>
       <c r="D80">
@@ -7221,52 +7221,52 @@
         <v>4022.0862779274421</v>
       </c>
       <c r="K80" s="20">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>-1.8955093034655597</v>
       </c>
       <c r="L80" s="21">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>4.0220862779274418</v>
       </c>
       <c r="M80" s="22">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>3.06203</v>
       </c>
       <c r="O80" s="31">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1.31203</v>
       </c>
       <c r="P80" s="10"/>
       <c r="Q80" s="31">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1.04833</v>
       </c>
       <c r="S80" s="20">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>-25.233336704771727</v>
       </c>
       <c r="T80" s="21">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>34.553616538294953</v>
       </c>
       <c r="U80" s="21">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>5.398718483817869</v>
       </c>
       <c r="V80" s="21">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>16.440246799953421</v>
       </c>
       <c r="W80" s="21">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>4.6358986472437804</v>
       </c>
       <c r="X80" s="21">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>13.26649045905646</v>
       </c>
       <c r="Y80" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>4.5682742185114842</v>
       </c>
     </row>
@@ -7278,7 +7278,7 @@
         <v>29</v>
       </c>
       <c r="C81">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>13</v>
       </c>
       <c r="D81">
@@ -7302,52 +7302,52 @@
         <v>4035.029736540162</v>
       </c>
       <c r="K81" s="20">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1.8612803034655598</v>
       </c>
       <c r="L81" s="21">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>4.0350297365401619</v>
       </c>
       <c r="M81" s="22">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>3.06203</v>
       </c>
       <c r="O81" s="31">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1.31203</v>
       </c>
       <c r="P81" s="10"/>
       <c r="Q81" s="31">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1.04833</v>
       </c>
       <c r="S81" s="20">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>24.76295209290965</v>
       </c>
       <c r="T81" s="21">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>34.570079652891202</v>
       </c>
       <c r="U81" s="21">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>5.3964670909523962</v>
       </c>
       <c r="V81" s="21">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>16.449814870651814</v>
       </c>
       <c r="W81" s="21">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>4.633276601254475</v>
       </c>
       <c r="X81" s="21">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>13.274363626551517</v>
       </c>
       <c r="Y81" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>4.5656133357668622</v>
       </c>
     </row>
@@ -7359,7 +7359,7 @@
         <v>36</v>
       </c>
       <c r="C82" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>20</v>
       </c>
       <c r="D82" s="4">
@@ -7383,52 +7383,52 @@
         <v>2632.384493061184</v>
       </c>
       <c r="K82" s="23">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>5.3064506070532076</v>
       </c>
       <c r="L82" s="24">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>2.6323844930611839</v>
       </c>
       <c r="M82" s="25">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>3.06203</v>
       </c>
       <c r="O82" s="32">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1.31203</v>
       </c>
       <c r="P82" s="26"/>
       <c r="Q82" s="32">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1.04833</v>
       </c>
       <c r="S82" s="23">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>63.615252451855795</v>
       </c>
       <c r="T82" s="24">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>27.335757209509374</v>
       </c>
       <c r="U82" s="24">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>6.6681252151788772</v>
       </c>
       <c r="V82" s="24">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>12.489133495552117</v>
       </c>
       <c r="W82" s="24">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>6.0670659206328352</v>
       </c>
       <c r="X82" s="24">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>10.036177586498006</v>
       </c>
       <c r="Y82" s="25">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>6.0155516748926976</v>
       </c>
     </row>
@@ -7440,18 +7440,18 @@
         <v>19</v>
       </c>
       <c r="C83">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>3</v>
       </c>
       <c r="D83">
         <v>41</v>
       </c>
       <c r="E83" s="3">
-        <f t="shared" ref="E83:F86" si="48">E79*-1</f>
+        <f t="shared" ref="E83:F86" si="50">E79*-1</f>
         <v>5289.2809999999999</v>
       </c>
       <c r="F83" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>-2649.31</v>
       </c>
       <c r="G83">
@@ -7466,52 +7466,52 @@
         <v>-2644.5681955159243</v>
       </c>
       <c r="K83" s="20">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>5.2863950181506461</v>
       </c>
       <c r="L83" s="21">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>-2.6445681955159244</v>
       </c>
       <c r="M83" s="22">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>3.06203</v>
       </c>
       <c r="O83" s="31">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1.31203</v>
       </c>
       <c r="P83" s="10"/>
       <c r="Q83" s="31">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1.04833</v>
       </c>
       <c r="S83" s="20">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>116.57693472378661</v>
       </c>
       <c r="T83" s="21">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>27.385235002966883</v>
       </c>
       <c r="U83" s="21">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>6.6570069062276271</v>
       </c>
       <c r="V83" s="21">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>12.514751523165046</v>
       </c>
       <c r="W83" s="21">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>6.0548440070378629</v>
       </c>
       <c r="X83" s="21">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>10.056999542825952</v>
       </c>
       <c r="Y83" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>6.0032248848066923</v>
       </c>
     </row>
@@ -7523,78 +7523,78 @@
         <v>24</v>
       </c>
       <c r="C84">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>8</v>
       </c>
       <c r="D84">
         <v>42</v>
       </c>
       <c r="E84" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>1896.6679999999999</v>
       </c>
       <c r="F84" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>-4027.5149999999999</v>
       </c>
       <c r="G84">
         <v>3062.03</v>
       </c>
       <c r="H84" s="3">
-        <f t="shared" ref="H84:I84" si="49">H80*-1</f>
+        <f t="shared" ref="H84:I84" si="51">H80*-1</f>
         <v>1895.5093034655597</v>
       </c>
       <c r="I84" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>-4022.0862779274421</v>
       </c>
       <c r="K84" s="20">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1.8955093034655597</v>
       </c>
       <c r="L84" s="21">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>-4.0220862779274418</v>
       </c>
       <c r="M84" s="22">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>3.06203</v>
       </c>
       <c r="O84" s="31">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1.31203</v>
       </c>
       <c r="P84" s="10"/>
       <c r="Q84" s="31">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1.04833</v>
       </c>
       <c r="S84" s="20">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>154.76666329522828</v>
       </c>
       <c r="T84" s="21">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>34.553616538294953</v>
       </c>
       <c r="U84" s="21">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>5.398718483817869</v>
       </c>
       <c r="V84" s="21">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>16.440246799953421</v>
       </c>
       <c r="W84" s="21">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>4.6358986472437804</v>
       </c>
       <c r="X84" s="21">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>13.26649045905646</v>
       </c>
       <c r="Y84" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>4.5682742185114842</v>
       </c>
     </row>
@@ -7606,78 +7606,78 @@
         <v>29</v>
       </c>
       <c r="C85">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>13</v>
       </c>
       <c r="D85">
         <v>43</v>
       </c>
       <c r="E85" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>-1862.4390000000001</v>
       </c>
       <c r="F85" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>-4034.8209999999999</v>
       </c>
       <c r="G85">
         <v>3062.03</v>
       </c>
       <c r="H85" s="3">
-        <f t="shared" ref="H85:I85" si="50">H81*-1</f>
+        <f t="shared" ref="H85:I85" si="52">H81*-1</f>
         <v>-1861.2803034655599</v>
       </c>
       <c r="I85" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>-4035.029736540162</v>
       </c>
       <c r="K85" s="20">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>-1.8612803034655598</v>
       </c>
       <c r="L85" s="21">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>-4.0350297365401619</v>
       </c>
       <c r="M85" s="22">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>3.06203</v>
       </c>
       <c r="O85" s="31">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1.31203</v>
       </c>
       <c r="P85" s="10"/>
       <c r="Q85" s="31">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1.04833</v>
       </c>
       <c r="S85" s="20">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>-155.23704790709036</v>
       </c>
       <c r="T85" s="21">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>34.570079652891202</v>
       </c>
       <c r="U85" s="21">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>5.3964670909523962</v>
       </c>
       <c r="V85" s="21">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>16.449814870651814</v>
       </c>
       <c r="W85" s="21">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>4.633276601254475</v>
       </c>
       <c r="X85" s="21">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>13.274363626551517</v>
       </c>
       <c r="Y85" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>4.5656133357668622</v>
       </c>
     </row>
@@ -7689,78 +7689,78 @@
         <v>36</v>
       </c>
       <c r="C86" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>20</v>
       </c>
       <c r="D86" s="4">
         <v>44</v>
       </c>
       <c r="E86" s="49">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>-5308.9279999999999</v>
       </c>
       <c r="F86" s="49">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>-2637.3519999999999</v>
       </c>
       <c r="G86" s="4">
         <v>3062.03</v>
       </c>
       <c r="H86" s="3">
-        <f t="shared" ref="H86:I86" si="51">H82*-1</f>
+        <f t="shared" ref="H86:I86" si="53">H82*-1</f>
         <v>-5306.4506070532079</v>
       </c>
       <c r="I86" s="3">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>-2632.384493061184</v>
       </c>
       <c r="K86" s="23">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>-5.3064506070532076</v>
       </c>
       <c r="L86" s="24">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>-2.6323844930611839</v>
       </c>
       <c r="M86" s="25">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>3.06203</v>
       </c>
       <c r="O86" s="32">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1.31203</v>
       </c>
       <c r="P86" s="26"/>
       <c r="Q86" s="32">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1.04833</v>
       </c>
       <c r="S86" s="23">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>-116.3847475481442</v>
       </c>
       <c r="T86" s="24">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>27.335757209509374</v>
       </c>
       <c r="U86" s="24">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>6.6681252151788772</v>
       </c>
       <c r="V86" s="24">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>12.489133495552117</v>
       </c>
       <c r="W86" s="24">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>6.0670659206328352</v>
       </c>
       <c r="X86" s="24">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>10.036177586498006</v>
       </c>
       <c r="Y86" s="25">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>6.0155516748926976</v>
       </c>
     </row>
@@ -7772,7 +7772,7 @@
         <v>99</v>
       </c>
       <c r="C87" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>83</v>
       </c>
       <c r="D87" s="4">
@@ -7794,52 +7794,52 @@
         <v>0</v>
       </c>
       <c r="K87" s="20">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>-0.3</v>
       </c>
       <c r="L87" s="24">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="M87" s="25">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>3.7666840000000001</v>
       </c>
       <c r="O87" s="32">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>2.0166840000000001</v>
       </c>
       <c r="P87" s="26"/>
       <c r="Q87" s="32">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1.7529840000000001</v>
       </c>
       <c r="S87" s="23">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>-90</v>
       </c>
       <c r="T87" s="24">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>85.446252888002618</v>
       </c>
       <c r="U87" s="24">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>3.7786119615350819</v>
       </c>
       <c r="V87" s="24">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>81.538783529194319</v>
       </c>
       <c r="W87" s="24">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>2.0388757578273378</v>
       </c>
       <c r="X87" s="24">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>80.28866454423698</v>
       </c>
       <c r="Y87" s="25">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1.7784692587323516</v>
       </c>
     </row>
@@ -7865,52 +7865,52 @@
         <v>3994.9502779274421</v>
       </c>
       <c r="K88" s="23">
-        <f t="shared" ref="K88:L89" si="52">H88/1000</f>
+        <f t="shared" ref="K88:L89" si="54">H88/1000</f>
         <v>-2.0226463034655597</v>
       </c>
       <c r="L88" s="24">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>3.9949502779274422</v>
       </c>
       <c r="M88" s="25">
-        <f t="shared" ref="M88:M89" si="53">G88/1000</f>
+        <f t="shared" ref="M88:M89" si="55">G88/1000</f>
         <v>0.32300000000000001</v>
       </c>
       <c r="O88" s="31">
-        <f t="shared" ref="O88:O89" si="54">M88-$E$4</f>
+        <f t="shared" ref="O88:O89" si="56">M88-$E$4</f>
         <v>-1.427</v>
       </c>
       <c r="P88" s="10"/>
       <c r="Q88" s="31">
-        <f t="shared" ref="Q88:Q89" si="55">M88-$S$7</f>
+        <f t="shared" ref="Q88:Q89" si="57">M88-$S$7</f>
         <v>-1.6907000000000001</v>
       </c>
       <c r="S88" s="20">
-        <f t="shared" ref="S88:S89" si="56">DEGREES( ATAN2(L88,K88))</f>
+        <f t="shared" ref="S88:S89" si="58">DEGREES( ATAN2(L88,K88))</f>
         <v>-26.853127599364868</v>
       </c>
       <c r="T88" s="21">
-        <f t="shared" ref="T88:T89" si="57">DEGREES(ATAN2((SQRT(POWER(K88,2)+POWER(L88,2))),M88))</f>
+        <f t="shared" ref="T88:T89" si="59">DEGREES(ATAN2((SQRT(POWER(K88,2)+POWER(L88,2))),M88))</f>
         <v>4.1258036033196159</v>
       </c>
       <c r="U88" s="21">
-        <f t="shared" ref="U88:U89" si="58">SQRT(POWER(K88,2)+POWER(L88,2)+POWER(M88,2))</f>
+        <f t="shared" ref="U88:U89" si="60">SQRT(POWER(K88,2)+POWER(L88,2)+POWER(M88,2))</f>
         <v>4.4894381376777472</v>
       </c>
       <c r="V88" s="21">
-        <f t="shared" ref="V88:V89" si="59">DEGREES(ATAN2((SQRT(POWER(K88,2)+POWER(L88,2))),O88))</f>
+        <f t="shared" ref="V88:V89" si="61">DEGREES(ATAN2((SQRT(POWER(K88,2)+POWER(L88,2))),O88))</f>
         <v>-17.676197195270404</v>
       </c>
       <c r="W88" s="21">
-        <f t="shared" ref="W88:W89" si="60">SQRT(POWER(K88,2)+POWER(L88,2)+POWER(O88,2))</f>
+        <f t="shared" ref="W88:W89" si="62">SQRT(POWER(K88,2)+POWER(L88,2)+POWER(O88,2))</f>
         <v>4.6996866695595187</v>
       </c>
       <c r="X88" s="21">
-        <f t="shared" ref="X88:X89" si="61">DEGREES(ATAN2((SQRT(POWER(K88,2)+POWER(L88,2))),Q88))</f>
+        <f t="shared" ref="X88:X89" si="63">DEGREES(ATAN2((SQRT(POWER(K88,2)+POWER(L88,2))),Q88))</f>
         <v>-20.685207470353582</v>
       </c>
       <c r="Y88" s="22">
-        <f t="shared" ref="Y88:Y89" si="62">SQRT(POWER(K88,2)+POWER(L88,2)+POWER(Q88,2))</f>
+        <f t="shared" ref="Y88:Y89" si="64">SQRT(POWER(K88,2)+POWER(L88,2)+POWER(Q88,2))</f>
         <v>4.786354801102342</v>
       </c>
     </row>
@@ -7938,52 +7938,52 @@
         <v>-3994.9502779274421</v>
       </c>
       <c r="K89" s="23">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>2.0226463034655597</v>
       </c>
       <c r="L89" s="24">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>-3.9949502779274422</v>
       </c>
       <c r="M89" s="25">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>0.32300000000000001</v>
       </c>
       <c r="O89" s="32">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>-1.427</v>
       </c>
       <c r="P89" s="10"/>
       <c r="Q89" s="32">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>-1.6907000000000001</v>
       </c>
       <c r="S89" s="23">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>153.14687240063512</v>
       </c>
       <c r="T89" s="24">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>4.1258036033196159</v>
       </c>
       <c r="U89" s="24">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>4.4894381376777472</v>
       </c>
       <c r="V89" s="24">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>-17.676197195270404</v>
       </c>
       <c r="W89" s="24">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>4.6996866695595187</v>
       </c>
       <c r="X89" s="24">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>-20.685207470353582</v>
       </c>
       <c r="Y89" s="25">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>4.786354801102342</v>
       </c>
     </row>
@@ -7997,9 +7997,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FB7E19B-28C7-C243-BBC7-D408EB3076DB}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -8028,18 +8026,23 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="10">
-        <v>-6.078808933919456</v>
+        <f>Hufo_SpeakerPositions!O7</f>
+        <v>-5.9980562484265212</v>
       </c>
       <c r="B2" s="10">
-        <v>2.0779235561626548</v>
+        <f>Hufo_SpeakerPositions!Q7</f>
+        <v>2.1369066366661285</v>
       </c>
       <c r="C2" s="10">
-        <v>-5.352034764483049</v>
+        <f>Hufo_SpeakerPositions!P7</f>
+        <v>-5.4327874499759838</v>
       </c>
       <c r="D2" s="10">
-        <v>2.6087712806939196</v>
+        <f>Hufo_SpeakerPositions!R7</f>
+        <v>2.5497882001904459</v>
       </c>
       <c r="E2" s="10">
+        <f>Hufo_SpeakerPositions!S7</f>
         <v>2.0137</v>
       </c>
       <c r="F2" s="10">
@@ -8053,18 +8056,23 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="10">
-        <v>-5.4222163904860725</v>
+        <f>Hufo_SpeakerPositions!O8</f>
+        <v>-5.3367938633004224</v>
       </c>
       <c r="B3" s="10">
-        <v>2.5619033214915339</v>
+        <f>Hufo_SpeakerPositions!Q8</f>
+        <v>2.6138936268302873</v>
       </c>
       <c r="C3" s="10">
-        <v>-4.6534136458152195</v>
+        <f>Hufo_SpeakerPositions!P8</f>
+        <v>-4.7388361730008697</v>
       </c>
       <c r="D3" s="10">
-        <v>3.0298160695403151</v>
+        <f>Hufo_SpeakerPositions!R8</f>
+        <v>2.9778257642015618</v>
       </c>
       <c r="E3" s="10">
+        <f>Hufo_SpeakerPositions!S8</f>
         <v>2.0137</v>
       </c>
       <c r="F3" s="10">
@@ -8078,18 +8086,23 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="10">
-        <v>-4.7272848816825013</v>
+        <f>Hufo_SpeakerPositions!O9</f>
+        <v>-4.6377963762093248</v>
       </c>
       <c r="B4" s="10">
-        <v>2.9890099808910522</v>
+        <f>Hufo_SpeakerPositions!Q9</f>
+        <v>3.033639650262193</v>
       </c>
       <c r="C4" s="10">
-        <v>-3.9218883324239155</v>
+        <f>Hufo_SpeakerPositions!P9</f>
+        <v>-4.0113768378970915</v>
       </c>
       <c r="D4" s="10">
-        <v>3.3906770052313164</v>
+        <f>Hufo_SpeakerPositions!R9</f>
+        <v>3.3460473358601757</v>
       </c>
       <c r="E4" s="10">
+        <f>Hufo_SpeakerPositions!S9</f>
         <v>2.0137</v>
       </c>
       <c r="F4" s="10">
@@ -8103,18 +8116,23 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="10">
-        <v>-3.9989269241661862</v>
+        <f>Hufo_SpeakerPositions!O10</f>
+        <v>-3.9060053189316997</v>
       </c>
       <c r="B5" s="10">
-        <v>3.3562213120641884</v>
+        <f>Hufo_SpeakerPositions!Q10</f>
+        <v>3.3931750030929093</v>
       </c>
       <c r="C5" s="10">
-        <v>-3.1626324770558054</v>
+        <f>Hufo_SpeakerPositions!P10</f>
+        <v>-3.255554082290292</v>
       </c>
       <c r="D5" s="10">
-        <v>3.6888045313226794</v>
+        <f>Hufo_SpeakerPositions!R10</f>
+        <v>3.6518508402939585</v>
       </c>
       <c r="E5" s="10">
+        <f>Hufo_SpeakerPositions!S10</f>
         <v>2.0137</v>
       </c>
       <c r="F5" s="10">
@@ -8128,18 +8146,23 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="10">
-        <v>-3.2422930911545711</v>
+        <f>Hufo_SpeakerPositions!O11</f>
+        <v>-3.1465953611916024</v>
       </c>
       <c r="B6" s="10">
-        <v>3.6609430609563591</v>
+        <f>Hufo_SpeakerPositions!Q11</f>
+        <v>3.6899593405237807</v>
       </c>
       <c r="C6" s="10">
-        <v>-2.3810135214878545</v>
+        <f>Hufo_SpeakerPositions!P11</f>
+        <v>-2.4767112514508232</v>
       </c>
       <c r="D6" s="10">
-        <v>3.9220895770631516</v>
+        <f>Hufo_SpeakerPositions!R11</f>
+        <v>3.8930732974957305</v>
       </c>
       <c r="E6" s="10">
+        <f>Hufo_SpeakerPositions!S11</f>
         <v>2.0137</v>
       </c>
       <c r="F6" s="10">
@@ -8153,18 +8176,23 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="10">
-        <v>-2.4627331629775404</v>
+        <f>Hufo_SpeakerPositions!O12</f>
+        <v>-2.3649359719748784</v>
       </c>
       <c r="B7" s="10">
-        <v>3.9010193348544608</v>
+        <f>Hufo_SpeakerPositions!Q12</f>
+        <v>3.9218929888706788</v>
       </c>
       <c r="C7" s="10">
-        <v>-1.5825584439535791</v>
+        <f>Hufo_SpeakerPositions!P12</f>
+        <v>-1.6803556349562414</v>
       </c>
       <c r="D7" s="10">
-        <v>4.0888822210004241</v>
+        <f>Hufo_SpeakerPositions!R12</f>
+        <v>4.0680085669842052</v>
       </c>
       <c r="E7" s="10">
+        <f>Hufo_SpeakerPositions!S12</f>
         <v>2.0137</v>
       </c>
       <c r="F7" s="10">
@@ -8178,18 +8206,23 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="10">
-        <v>-1.665759476856429</v>
+        <f>Hufo_SpeakerPositions!O13</f>
+        <v>-1.5665543677390947</v>
       </c>
       <c r="B8" s="10">
-        <v>4.0747520431086484</v>
+        <f>Hufo_SpeakerPositions!Q13</f>
+        <v>4.08733561672737</v>
       </c>
       <c r="C8" s="10">
-        <v>-0.77291349480042038</v>
+        <f>Hufo_SpeakerPositions!P13</f>
+        <v>-0.87211860391775464</v>
       </c>
       <c r="D8" s="10">
-        <v>4.1880042056771467</v>
+        <f>Hufo_SpeakerPositions!R13</f>
+        <v>4.1754206320584233</v>
       </c>
       <c r="E8" s="10">
+        <f>Hufo_SpeakerPositions!S13</f>
         <v>2.0137</v>
       </c>
       <c r="F8" s="10">
@@ -8203,18 +8236,23 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="10">
-        <v>-0.85700770234138113</v>
+        <f>Hufo_SpeakerPositions!O14</f>
+        <v>-0.75709612692609174</v>
       </c>
       <c r="B9" s="10">
-        <v>4.1809140449394828</v>
+        <f>Hufo_SpeakerPositions!Q14</f>
+        <v>4.1851184590526405</v>
       </c>
       <c r="C9" s="10">
-        <v>4.2196476396223946E-2</v>
+        <f>Hufo_SpeakerPositions!P14</f>
+        <v>-5.7715099019065463E-2</v>
       </c>
       <c r="D9" s="10">
-        <v>4.2187537719579096</v>
+        <f>Hufo_SpeakerPositions!R14</f>
+        <v>4.214549357844751</v>
       </c>
       <c r="E9" s="10">
+        <f>Hufo_SpeakerPositions!S14</f>
         <v>2.0137</v>
       </c>
       <c r="F9" s="10">
@@ -8228,18 +8266,23 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="10">
-        <v>-4.2196476396223946E-2</v>
+        <f>Hufo_SpeakerPositions!O15</f>
+        <v>5.7715099019065463E-2</v>
       </c>
       <c r="B10" s="10">
-        <v>4.2187537719579096</v>
+        <f>Hufo_SpeakerPositions!Q15</f>
+        <v>4.214549357844751</v>
       </c>
       <c r="C10" s="10">
-        <v>0.85700770234138113</v>
+        <f>Hufo_SpeakerPositions!P15</f>
+        <v>0.75709612692609174</v>
       </c>
       <c r="D10" s="10">
-        <v>4.1809140449394828</v>
+        <f>Hufo_SpeakerPositions!R15</f>
+        <v>4.1851184590526405</v>
       </c>
       <c r="E10" s="10">
+        <f>Hufo_SpeakerPositions!S15</f>
         <v>2.0137</v>
       </c>
       <c r="F10" s="10">
@@ -8253,18 +8296,23 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="10">
-        <v>0.77291349480042038</v>
+        <f>Hufo_SpeakerPositions!O16</f>
+        <v>0.87211860391775464</v>
       </c>
       <c r="B11" s="10">
-        <v>4.1880042056771467</v>
+        <f>Hufo_SpeakerPositions!Q16</f>
+        <v>4.1754206320584233</v>
       </c>
       <c r="C11" s="10">
-        <v>1.665759476856429</v>
+        <f>Hufo_SpeakerPositions!P16</f>
+        <v>1.5665543677390947</v>
       </c>
       <c r="D11" s="10">
-        <v>4.0747520431086484</v>
+        <f>Hufo_SpeakerPositions!R16</f>
+        <v>4.08733561672737</v>
       </c>
       <c r="E11" s="10">
+        <f>Hufo_SpeakerPositions!S16</f>
         <v>2.0137</v>
       </c>
       <c r="F11" s="10">
@@ -8278,18 +8326,23 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="10">
-        <v>1.5825584439535791</v>
+        <f>Hufo_SpeakerPositions!O17</f>
+        <v>1.6803556349562414</v>
       </c>
       <c r="B12" s="10">
-        <v>4.0888822210004241</v>
+        <f>Hufo_SpeakerPositions!Q17</f>
+        <v>4.0680085669842052</v>
       </c>
       <c r="C12" s="10">
-        <v>2.4627331629775404</v>
+        <f>Hufo_SpeakerPositions!P17</f>
+        <v>2.3649359719748784</v>
       </c>
       <c r="D12" s="10">
-        <v>3.9010193348544608</v>
+        <f>Hufo_SpeakerPositions!R17</f>
+        <v>3.9218929888706788</v>
       </c>
       <c r="E12" s="10">
+        <f>Hufo_SpeakerPositions!S17</f>
         <v>2.0137</v>
       </c>
       <c r="F12" s="10">
@@ -8303,18 +8356,23 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="10">
-        <v>2.3810135214878545</v>
+        <f>Hufo_SpeakerPositions!O18</f>
+        <v>2.4767112514508232</v>
       </c>
       <c r="B13" s="10">
-        <v>3.9220895770631516</v>
+        <f>Hufo_SpeakerPositions!Q18</f>
+        <v>3.8930732974957305</v>
       </c>
       <c r="C13" s="10">
-        <v>3.2422930911545711</v>
+        <f>Hufo_SpeakerPositions!P18</f>
+        <v>3.1465953611916024</v>
       </c>
       <c r="D13" s="10">
-        <v>3.6609430609563591</v>
+        <f>Hufo_SpeakerPositions!R18</f>
+        <v>3.6899593405237807</v>
       </c>
       <c r="E13" s="10">
+        <f>Hufo_SpeakerPositions!S18</f>
         <v>2.0137</v>
       </c>
       <c r="F13" s="10">
@@ -8328,18 +8386,23 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="10">
-        <v>3.1626324770558054</v>
+        <f>Hufo_SpeakerPositions!O19</f>
+        <v>3.255554082290292</v>
       </c>
       <c r="B14" s="10">
-        <v>3.6888045313226794</v>
+        <f>Hufo_SpeakerPositions!Q19</f>
+        <v>3.6518508402939585</v>
       </c>
       <c r="C14" s="10">
-        <v>3.9989269241661862</v>
+        <f>Hufo_SpeakerPositions!P19</f>
+        <v>3.9060053189316997</v>
       </c>
       <c r="D14" s="10">
-        <v>3.3562213120641884</v>
+        <f>Hufo_SpeakerPositions!R19</f>
+        <v>3.3931750030929093</v>
       </c>
       <c r="E14" s="10">
+        <f>Hufo_SpeakerPositions!S19</f>
         <v>2.0137</v>
       </c>
       <c r="F14" s="10">
@@ -8353,18 +8416,23 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="10">
-        <v>3.9218883324239155</v>
+        <f>Hufo_SpeakerPositions!O20</f>
+        <v>4.0113768378970915</v>
       </c>
       <c r="B15" s="10">
-        <v>3.3906770052313164</v>
+        <f>Hufo_SpeakerPositions!Q20</f>
+        <v>3.3460473358601757</v>
       </c>
       <c r="C15" s="10">
-        <v>4.7272848816825013</v>
+        <f>Hufo_SpeakerPositions!P20</f>
+        <v>4.6377963762093248</v>
       </c>
       <c r="D15" s="10">
-        <v>2.9890099808910522</v>
+        <f>Hufo_SpeakerPositions!R20</f>
+        <v>3.033639650262193</v>
       </c>
       <c r="E15" s="10">
+        <f>Hufo_SpeakerPositions!S20</f>
         <v>2.0137</v>
       </c>
       <c r="F15" s="10">
@@ -8378,18 +8446,23 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="10">
-        <v>4.6534136458152195</v>
+        <f>Hufo_SpeakerPositions!O21</f>
+        <v>4.7388361730008697</v>
       </c>
       <c r="B16" s="10">
-        <v>3.0298160695403151</v>
+        <f>Hufo_SpeakerPositions!Q21</f>
+        <v>2.9778257642015618</v>
       </c>
       <c r="C16" s="10">
-        <v>5.4222163904860725</v>
+        <f>Hufo_SpeakerPositions!P21</f>
+        <v>5.3367938633004224</v>
       </c>
       <c r="D16" s="10">
-        <v>2.5619033214915339</v>
+        <f>Hufo_SpeakerPositions!R21</f>
+        <v>2.6138936268302873</v>
       </c>
       <c r="E16" s="10">
+        <f>Hufo_SpeakerPositions!S21</f>
         <v>2.0137</v>
       </c>
       <c r="F16" s="10">
@@ -8403,18 +8476,23 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="10">
-        <v>5.352034764483049</v>
+        <f>Hufo_SpeakerPositions!O22</f>
+        <v>5.4327874499759838</v>
       </c>
       <c r="B17" s="10">
-        <v>2.6087712806939196</v>
+        <f>Hufo_SpeakerPositions!Q22</f>
+        <v>2.5497882001904459</v>
       </c>
       <c r="C17" s="10">
-        <v>6.078808933919456</v>
+        <f>Hufo_SpeakerPositions!P22</f>
+        <v>5.9980562484265212</v>
       </c>
       <c r="D17" s="10">
-        <v>2.0779235561626548</v>
+        <f>Hufo_SpeakerPositions!R22</f>
+        <v>2.1369066366661285</v>
       </c>
       <c r="E17" s="10">
+        <f>Hufo_SpeakerPositions!S22</f>
         <v>2.0137</v>
       </c>
       <c r="F17" s="10">
@@ -8428,18 +8506,23 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="10">
-        <v>6.078808933919456</v>
+        <f>Hufo_SpeakerPositions!O24</f>
+        <v>5.9980562484265212</v>
       </c>
       <c r="B18" s="10">
-        <v>-2.0779235561626548</v>
+        <f>Hufo_SpeakerPositions!Q24</f>
+        <v>-2.1369066366661285</v>
       </c>
       <c r="C18" s="10">
-        <v>5.352034764483049</v>
+        <f>Hufo_SpeakerPositions!P24</f>
+        <v>5.4327874499759838</v>
       </c>
       <c r="D18" s="10">
-        <v>-2.6087712806939196</v>
+        <f>Hufo_SpeakerPositions!R24</f>
+        <v>-2.5497882001904459</v>
       </c>
       <c r="E18" s="10">
+        <f>Hufo_SpeakerPositions!S24</f>
         <v>2.0137</v>
       </c>
       <c r="F18" s="10">
@@ -8453,18 +8536,23 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="10">
-        <v>5.4222163904860725</v>
+        <f>Hufo_SpeakerPositions!O25</f>
+        <v>5.3367938633004224</v>
       </c>
       <c r="B19" s="10">
-        <v>-2.5619033214915339</v>
+        <f>Hufo_SpeakerPositions!Q25</f>
+        <v>-2.6138936268302873</v>
       </c>
       <c r="C19" s="10">
-        <v>4.6534136458152195</v>
+        <f>Hufo_SpeakerPositions!P25</f>
+        <v>4.7388361730008697</v>
       </c>
       <c r="D19" s="10">
-        <v>-3.0298160695403151</v>
+        <f>Hufo_SpeakerPositions!R25</f>
+        <v>-2.9778257642015618</v>
       </c>
       <c r="E19" s="10">
+        <f>Hufo_SpeakerPositions!S25</f>
         <v>2.0137</v>
       </c>
       <c r="F19" s="10">
@@ -8478,18 +8566,23 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="10">
-        <v>4.7272848816825013</v>
+        <f>Hufo_SpeakerPositions!O26</f>
+        <v>4.6377963762093248</v>
       </c>
       <c r="B20" s="10">
-        <v>-2.9890099808910522</v>
+        <f>Hufo_SpeakerPositions!Q26</f>
+        <v>-3.033639650262193</v>
       </c>
       <c r="C20" s="10">
-        <v>3.9218883324239155</v>
+        <f>Hufo_SpeakerPositions!P26</f>
+        <v>4.0113768378970915</v>
       </c>
       <c r="D20" s="10">
-        <v>-3.3906770052313164</v>
+        <f>Hufo_SpeakerPositions!R26</f>
+        <v>-3.3460473358601757</v>
       </c>
       <c r="E20" s="10">
+        <f>Hufo_SpeakerPositions!S26</f>
         <v>2.0137</v>
       </c>
       <c r="F20" s="10">
@@ -8503,18 +8596,23 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="10">
-        <v>3.9989269241661862</v>
+        <f>Hufo_SpeakerPositions!O27</f>
+        <v>3.9060053189316997</v>
       </c>
       <c r="B21" s="10">
-        <v>-3.3562213120641884</v>
+        <f>Hufo_SpeakerPositions!Q27</f>
+        <v>-3.3931750030929093</v>
       </c>
       <c r="C21" s="10">
-        <v>3.1626324770558054</v>
+        <f>Hufo_SpeakerPositions!P27</f>
+        <v>3.255554082290292</v>
       </c>
       <c r="D21" s="10">
-        <v>-3.6888045313226794</v>
+        <f>Hufo_SpeakerPositions!R27</f>
+        <v>-3.6518508402939585</v>
       </c>
       <c r="E21" s="10">
+        <f>Hufo_SpeakerPositions!S27</f>
         <v>2.0137</v>
       </c>
       <c r="F21" s="10">
@@ -8528,18 +8626,23 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="10">
-        <v>3.2422930911545711</v>
+        <f>Hufo_SpeakerPositions!O28</f>
+        <v>3.1465953611916024</v>
       </c>
       <c r="B22" s="10">
-        <v>-3.6609430609563591</v>
+        <f>Hufo_SpeakerPositions!Q28</f>
+        <v>-3.6899593405237807</v>
       </c>
       <c r="C22" s="10">
-        <v>2.3810135214878545</v>
+        <f>Hufo_SpeakerPositions!P28</f>
+        <v>2.4767112514508232</v>
       </c>
       <c r="D22" s="10">
-        <v>-3.9220895770631516</v>
+        <f>Hufo_SpeakerPositions!R28</f>
+        <v>-3.8930732974957305</v>
       </c>
       <c r="E22" s="10">
+        <f>Hufo_SpeakerPositions!S28</f>
         <v>2.0137</v>
       </c>
       <c r="F22" s="10">
@@ -8553,18 +8656,23 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="10">
-        <v>2.4627331629775404</v>
+        <f>Hufo_SpeakerPositions!O29</f>
+        <v>2.3649359719748784</v>
       </c>
       <c r="B23" s="10">
-        <v>-3.9010193348544608</v>
+        <f>Hufo_SpeakerPositions!Q29</f>
+        <v>-3.9218929888706788</v>
       </c>
       <c r="C23" s="10">
-        <v>1.5825584439535791</v>
+        <f>Hufo_SpeakerPositions!P29</f>
+        <v>1.6803556349562414</v>
       </c>
       <c r="D23" s="10">
-        <v>-4.0888822210004241</v>
+        <f>Hufo_SpeakerPositions!R29</f>
+        <v>-4.0680085669842052</v>
       </c>
       <c r="E23" s="10">
+        <f>Hufo_SpeakerPositions!S29</f>
         <v>2.0137</v>
       </c>
       <c r="F23" s="10">
@@ -8578,18 +8686,23 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="10">
-        <v>1.665759476856429</v>
+        <f>Hufo_SpeakerPositions!O30</f>
+        <v>1.5665543677390947</v>
       </c>
       <c r="B24" s="10">
-        <v>-4.0747520431086484</v>
+        <f>Hufo_SpeakerPositions!Q30</f>
+        <v>-4.08733561672737</v>
       </c>
       <c r="C24" s="10">
-        <v>0.77291349480042038</v>
+        <f>Hufo_SpeakerPositions!P30</f>
+        <v>0.87211860391775464</v>
       </c>
       <c r="D24" s="10">
-        <v>-4.1880042056771467</v>
+        <f>Hufo_SpeakerPositions!R30</f>
+        <v>-4.1754206320584233</v>
       </c>
       <c r="E24" s="10">
+        <f>Hufo_SpeakerPositions!S30</f>
         <v>2.0137</v>
       </c>
       <c r="F24" s="10">
@@ -8603,18 +8716,23 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="10">
-        <v>0.85700770234138113</v>
+        <f>Hufo_SpeakerPositions!O31</f>
+        <v>0.75709612692609174</v>
       </c>
       <c r="B25" s="10">
-        <v>-4.1809140449394828</v>
+        <f>Hufo_SpeakerPositions!Q31</f>
+        <v>-4.1851184590526405</v>
       </c>
       <c r="C25" s="10">
-        <v>-4.2196476396223946E-2</v>
+        <f>Hufo_SpeakerPositions!P31</f>
+        <v>5.7715099019065463E-2</v>
       </c>
       <c r="D25" s="10">
-        <v>-4.2187537719579096</v>
+        <f>Hufo_SpeakerPositions!R31</f>
+        <v>-4.214549357844751</v>
       </c>
       <c r="E25" s="10">
+        <f>Hufo_SpeakerPositions!S31</f>
         <v>2.0137</v>
       </c>
       <c r="F25" s="10">
@@ -8628,18 +8746,23 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="10">
-        <v>4.2196476396223946E-2</v>
+        <f>Hufo_SpeakerPositions!O32</f>
+        <v>-5.7715099019065463E-2</v>
       </c>
       <c r="B26" s="10">
-        <v>-4.2187537719579096</v>
+        <f>Hufo_SpeakerPositions!Q32</f>
+        <v>-4.214549357844751</v>
       </c>
       <c r="C26" s="10">
-        <v>-0.85700770234138113</v>
+        <f>Hufo_SpeakerPositions!P32</f>
+        <v>-0.75709612692609174</v>
       </c>
       <c r="D26" s="10">
-        <v>-4.1809140449394828</v>
+        <f>Hufo_SpeakerPositions!R32</f>
+        <v>-4.1851184590526405</v>
       </c>
       <c r="E26" s="10">
+        <f>Hufo_SpeakerPositions!S32</f>
         <v>2.0137</v>
       </c>
       <c r="F26" s="10">
@@ -8653,18 +8776,23 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="10">
-        <v>-0.77291349480042038</v>
+        <f>Hufo_SpeakerPositions!O33</f>
+        <v>-0.87211860391775464</v>
       </c>
       <c r="B27" s="10">
-        <v>-4.1880042056771467</v>
+        <f>Hufo_SpeakerPositions!Q33</f>
+        <v>-4.1754206320584233</v>
       </c>
       <c r="C27" s="10">
-        <v>-1.665759476856429</v>
+        <f>Hufo_SpeakerPositions!P33</f>
+        <v>-1.5665543677390947</v>
       </c>
       <c r="D27" s="10">
-        <v>-4.0747520431086484</v>
+        <f>Hufo_SpeakerPositions!R33</f>
+        <v>-4.08733561672737</v>
       </c>
       <c r="E27" s="10">
+        <f>Hufo_SpeakerPositions!S33</f>
         <v>2.0137</v>
       </c>
       <c r="F27" s="10">
@@ -8678,18 +8806,23 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="10">
-        <v>-1.5825584439535791</v>
+        <f>Hufo_SpeakerPositions!O34</f>
+        <v>-1.6803556349562414</v>
       </c>
       <c r="B28" s="10">
-        <v>-4.0888822210004241</v>
+        <f>Hufo_SpeakerPositions!Q34</f>
+        <v>-4.0680085669842052</v>
       </c>
       <c r="C28" s="10">
-        <v>-2.4627331629775404</v>
+        <f>Hufo_SpeakerPositions!P34</f>
+        <v>-2.3649359719748784</v>
       </c>
       <c r="D28" s="10">
-        <v>-3.9010193348544608</v>
+        <f>Hufo_SpeakerPositions!R34</f>
+        <v>-3.9218929888706788</v>
       </c>
       <c r="E28" s="10">
+        <f>Hufo_SpeakerPositions!S34</f>
         <v>2.0137</v>
       </c>
       <c r="F28" s="10">
@@ -8703,18 +8836,23 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="10">
-        <v>-2.3810135214878545</v>
+        <f>Hufo_SpeakerPositions!O35</f>
+        <v>-2.4767112514508232</v>
       </c>
       <c r="B29" s="10">
-        <v>-3.9220895770631516</v>
+        <f>Hufo_SpeakerPositions!Q35</f>
+        <v>-3.8930732974957305</v>
       </c>
       <c r="C29" s="10">
-        <v>-3.2422930911545711</v>
+        <f>Hufo_SpeakerPositions!P35</f>
+        <v>-3.1465953611916024</v>
       </c>
       <c r="D29" s="10">
-        <v>-3.6609430609563591</v>
+        <f>Hufo_SpeakerPositions!R35</f>
+        <v>-3.6899593405237807</v>
       </c>
       <c r="E29" s="10">
+        <f>Hufo_SpeakerPositions!S35</f>
         <v>2.0137</v>
       </c>
       <c r="F29" s="10">
@@ -8728,18 +8866,23 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="10">
-        <v>-3.1626324770558054</v>
+        <f>Hufo_SpeakerPositions!O36</f>
+        <v>-3.255554082290292</v>
       </c>
       <c r="B30" s="10">
-        <v>-3.6888045313226794</v>
+        <f>Hufo_SpeakerPositions!Q36</f>
+        <v>-3.6518508402939585</v>
       </c>
       <c r="C30" s="10">
-        <v>-3.9989269241661862</v>
+        <f>Hufo_SpeakerPositions!P36</f>
+        <v>-3.9060053189316997</v>
       </c>
       <c r="D30" s="10">
-        <v>-3.3562213120641884</v>
+        <f>Hufo_SpeakerPositions!R36</f>
+        <v>-3.3931750030929093</v>
       </c>
       <c r="E30" s="10">
+        <f>Hufo_SpeakerPositions!S36</f>
         <v>2.0137</v>
       </c>
       <c r="F30" s="10">
@@ -8753,18 +8896,23 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="10">
-        <v>-3.9218883324239155</v>
+        <f>Hufo_SpeakerPositions!O37</f>
+        <v>-4.0113768378970915</v>
       </c>
       <c r="B31" s="10">
-        <v>-3.3906770052313164</v>
+        <f>Hufo_SpeakerPositions!Q37</f>
+        <v>-3.3460473358601757</v>
       </c>
       <c r="C31" s="10">
-        <v>-4.7272848816825013</v>
+        <f>Hufo_SpeakerPositions!P37</f>
+        <v>-4.6377963762093248</v>
       </c>
       <c r="D31" s="10">
-        <v>-2.9890099808910522</v>
+        <f>Hufo_SpeakerPositions!R37</f>
+        <v>-3.033639650262193</v>
       </c>
       <c r="E31" s="10">
+        <f>Hufo_SpeakerPositions!S37</f>
         <v>2.0137</v>
       </c>
       <c r="F31" s="10">
@@ -8778,18 +8926,23 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="10">
-        <v>-4.6534136458152195</v>
+        <f>Hufo_SpeakerPositions!O38</f>
+        <v>-4.7388361730008697</v>
       </c>
       <c r="B32" s="10">
-        <v>-3.0298160695403151</v>
+        <f>Hufo_SpeakerPositions!Q38</f>
+        <v>-2.9778257642015618</v>
       </c>
       <c r="C32" s="10">
-        <v>-5.4222163904860725</v>
+        <f>Hufo_SpeakerPositions!P38</f>
+        <v>-5.3367938633004224</v>
       </c>
       <c r="D32" s="10">
-        <v>-2.5619033214915339</v>
+        <f>Hufo_SpeakerPositions!R38</f>
+        <v>-2.6138936268302873</v>
       </c>
       <c r="E32" s="10">
+        <f>Hufo_SpeakerPositions!S38</f>
         <v>2.0137</v>
       </c>
       <c r="F32" s="10">
@@ -8803,18 +8956,23 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="10">
-        <v>-5.352034764483049</v>
+        <f>Hufo_SpeakerPositions!O39</f>
+        <v>-5.4327874499759838</v>
       </c>
       <c r="B33" s="10">
-        <v>-2.6087712806939196</v>
+        <f>Hufo_SpeakerPositions!Q39</f>
+        <v>-2.5497882001904459</v>
       </c>
       <c r="C33" s="10">
-        <v>-6.078808933919456</v>
+        <f>Hufo_SpeakerPositions!P39</f>
+        <v>-5.9980562484265212</v>
       </c>
       <c r="D33" s="10">
-        <v>-2.0779235561626548</v>
+        <f>Hufo_SpeakerPositions!R39</f>
+        <v>-2.1369066366661285</v>
       </c>
       <c r="E33" s="10">
+        <f>Hufo_SpeakerPositions!S39</f>
         <v>2.0137</v>
       </c>
       <c r="F33" s="10">
@@ -21253,37 +21411,37 @@
       <c r="D1" t="s">
         <v>59</v>
       </c>
-      <c r="F1" s="54" t="s">
+      <c r="F1" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
       <c r="I1" s="53"/>
-      <c r="J1" s="54" t="s">
+      <c r="J1" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="N1" s="54" t="s">
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="N1" s="78" t="s">
         <v>55</v>
       </c>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="R1" s="54" t="s">
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="R1" s="78" t="s">
         <v>56</v>
       </c>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
-      <c r="V1" s="54" t="s">
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="V1" s="78" t="s">
         <v>57</v>
       </c>
-      <c r="W1" s="55"/>
-      <c r="X1" s="55"/>
-      <c r="Z1" s="54" t="s">
+      <c r="W1" s="79"/>
+      <c r="X1" s="79"/>
+      <c r="Z1" s="78" t="s">
         <v>58</v>
       </c>
-      <c r="AA1" s="54"/>
-      <c r="AB1" s="54"/>
+      <c r="AA1" s="78"/>
+      <c r="AB1" s="78"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
